--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_3_19.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_3_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>486953.6016465278</v>
+        <v>481665.4861517564</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2220068.8925167</v>
+        <v>2280223.653892728</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419463.0933791244</v>
+        <v>419463.0933791243</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10879637.79994138</v>
+        <v>10877867.86177013</v>
       </c>
     </row>
     <row r="11">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>112.2315770898773</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>58.94802492086699</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>409.0311279568768</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H2" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -716,16 +716,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -750,13 +750,13 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H3" t="n">
-        <v>69.9893010461484</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -801,10 +801,10 @@
         <v>227.816073408046</v>
       </c>
       <c r="X3" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>177.5210747552478</v>
+        <v>83.10540215283829</v>
       </c>
     </row>
     <row r="4">
@@ -817,7 +817,7 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C4" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -862,13 +862,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>207.6985751920914</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
-        <v>197.0306270118062</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>220.8809405715231</v>
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -911,10 +911,10 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H5" t="n">
-        <v>97.3856693841221</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,16 +944,16 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
-        <v>164.8484195083599</v>
+        <v>93.3046139511388</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -981,13 +981,13 @@
         <v>128.7880777047345</v>
       </c>
       <c r="E6" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>123.1874880556995</v>
       </c>
       <c r="G6" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>87.41444223540508</v>
@@ -1020,16 +1020,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T6" t="n">
-        <v>147.2954742968084</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U6" t="n">
-        <v>207.9625118881446</v>
+        <v>180.0740781413221</v>
       </c>
       <c r="V6" t="n">
         <v>220.3146016126436</v>
@@ -1051,22 +1051,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
-        <v>145.7406737689587</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1105,13 +1105,13 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>157.5659080322541</v>
       </c>
       <c r="U7" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1130,25 +1130,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.205238724643059</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>409.0311279568768</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
         <v>136.9537457384598</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>10.97604769802489</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="9">
@@ -1288,16 +1288,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1306,13 +1306,13 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1348,16 +1348,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>159.3149947016329</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>280.4970980481341</v>
+        <v>202.5720700374084</v>
       </c>
       <c r="X10" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>325.4114858595509</v>
       </c>
       <c r="C11" t="n">
-        <v>318.1654340873668</v>
+        <v>318.1654340873667</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>310.5084051007669</v>
       </c>
       <c r="E11" t="n">
-        <v>327.479377239889</v>
+        <v>9.465920555416155</v>
       </c>
       <c r="F11" t="n">
         <v>341.6471816905901</v>
       </c>
       <c r="G11" t="n">
-        <v>337.952815562145</v>
+        <v>337.9528155621449</v>
       </c>
       <c r="H11" t="n">
-        <v>249.7639075344424</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>65.87543334372793</v>
+        <v>65.87543334372785</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>93.77010711362797</v>
       </c>
       <c r="T11" t="n">
-        <v>150.1872840214456</v>
+        <v>150.1872840214455</v>
       </c>
       <c r="U11" t="n">
-        <v>22.58203413617414</v>
+        <v>182.1168898750154</v>
       </c>
       <c r="V11" t="n">
-        <v>267.6074288087849</v>
+        <v>267.6074288087848</v>
       </c>
       <c r="W11" t="n">
-        <v>296.2107322866635</v>
+        <v>296.2107322866634</v>
       </c>
       <c r="X11" t="n">
         <v>314.4797666215418</v>
       </c>
       <c r="Y11" t="n">
-        <v>321.447489593873</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1528,10 +1528,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>97.4247543599387</v>
       </c>
       <c r="D13" t="n">
-        <v>82.99846957177851</v>
+        <v>82.99846957177843</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1540,13 +1540,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>95.49320096681694</v>
       </c>
       <c r="H13" t="n">
-        <v>82.84545313338907</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>60.685168714561</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>51.58366707901692</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>56.24112034307908</v>
+        <v>129.7096105845442</v>
       </c>
       <c r="T13" t="n">
-        <v>162.2835489187163</v>
+        <v>162.2835489187162</v>
       </c>
       <c r="U13" t="n">
-        <v>211.5060914457862</v>
+        <v>211.5060914457861</v>
       </c>
       <c r="V13" t="n">
-        <v>192.2412393326521</v>
+        <v>192.241239332652</v>
       </c>
       <c r="W13" t="n">
-        <v>209.4187856534023</v>
+        <v>209.4187856534022</v>
       </c>
       <c r="X13" t="n">
-        <v>160.6612066001148</v>
+        <v>89.38904995886247</v>
       </c>
       <c r="Y13" t="n">
-        <v>149.8026281767912</v>
+        <v>149.8026281767911</v>
       </c>
     </row>
     <row r="14">
@@ -1610,22 +1610,22 @@
         <v>318.1654340873667</v>
       </c>
       <c r="D14" t="n">
-        <v>219.4334640834802</v>
+        <v>310.5084051007669</v>
       </c>
       <c r="E14" t="n">
         <v>327.4793772398889</v>
       </c>
       <c r="F14" t="n">
-        <v>341.6471816905901</v>
+        <v>341.64718169059</v>
       </c>
       <c r="G14" t="n">
-        <v>337.9528155621449</v>
+        <v>337.9528155621448</v>
       </c>
       <c r="H14" t="n">
-        <v>249.7639075344423</v>
+        <v>249.7639075344422</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>65.87543334372782</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,22 +1655,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>93.77010711362797</v>
+        <v>93.77010711362794</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>150.1872840214455</v>
       </c>
       <c r="U14" t="n">
-        <v>182.1168898750154</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>296.2107322866634</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>171.1899637792183</v>
       </c>
       <c r="Y14" t="n">
         <v>321.4474895938729</v>
@@ -1765,25 +1765,25 @@
         <v>112.2776261096563</v>
       </c>
       <c r="C16" t="n">
-        <v>97.4247543599387</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>82.99846957177843</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>84.67436304442481</v>
+        <v>84.67436304442478</v>
       </c>
       <c r="G16" t="n">
-        <v>95.49320096681694</v>
+        <v>95.49320096681691</v>
       </c>
       <c r="H16" t="n">
-        <v>23.76901370792694</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>60.68516871456089</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>51.58366707901681</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>162.2835489187162</v>
       </c>
       <c r="U16" t="n">
         <v>211.5060914457861</v>
@@ -1828,7 +1828,7 @@
         <v>209.4187856534022</v>
       </c>
       <c r="X16" t="n">
-        <v>160.6612066001148</v>
+        <v>90.30105952746534</v>
       </c>
       <c r="Y16" t="n">
         <v>149.8026281767911</v>
@@ -1841,13 +1841,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C17" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D17" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E17" t="n">
         <v>268.1977203190365</v>
@@ -1859,10 +1859,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H17" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I17" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T17" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U17" t="n">
         <v>122.835232954163</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C19" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D19" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E19" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F19" t="n">
-        <v>25.39270612357237</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G19" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H19" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I19" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T19" t="n">
         <v>103.0018919978638</v>
@@ -2062,13 +2062,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W19" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X19" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y19" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="20">
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386984</v>
       </c>
       <c r="C20" t="n">
         <v>258.8837771665143</v>
@@ -2087,7 +2087,7 @@
         <v>251.2267481799145</v>
       </c>
       <c r="E20" t="n">
-        <v>268.1977203190365</v>
+        <v>268.1977203190364</v>
       </c>
       <c r="F20" t="n">
         <v>282.3655247697376</v>
@@ -2099,7 +2099,7 @@
         <v>190.4822506135898</v>
       </c>
       <c r="I20" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875379</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,16 +2129,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.48845019277553</v>
+        <v>34.4884501927755</v>
       </c>
       <c r="T20" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059305</v>
       </c>
       <c r="U20" t="n">
-        <v>122.835232954163</v>
+        <v>122.8352329541629</v>
       </c>
       <c r="V20" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879323</v>
       </c>
       <c r="W20" t="n">
         <v>236.929075365811</v>
@@ -2147,7 +2147,7 @@
         <v>255.1981097006893</v>
       </c>
       <c r="Y20" t="n">
-        <v>262.1658326730205</v>
+        <v>262.1658326730204</v>
       </c>
     </row>
     <row r="21">
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880383</v>
       </c>
       <c r="C22" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908623</v>
       </c>
       <c r="D22" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092596</v>
       </c>
       <c r="E22" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380507</v>
       </c>
       <c r="F22" t="n">
-        <v>25.39270612357237</v>
+        <v>25.39270612357234</v>
       </c>
       <c r="G22" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596447</v>
       </c>
       <c r="H22" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253652</v>
       </c>
       <c r="I22" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708446</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,13 +2287,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369168</v>
       </c>
       <c r="T22" t="n">
         <v>103.0018919978638</v>
       </c>
       <c r="U22" t="n">
-        <v>152.2244345249337</v>
+        <v>152.2244345249336</v>
       </c>
       <c r="V22" t="n">
         <v>132.9595824117996</v>
@@ -2305,7 +2305,7 @@
         <v>101.3795496792623</v>
       </c>
       <c r="Y22" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593863</v>
       </c>
     </row>
     <row r="23">
@@ -2315,16 +2315,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386984</v>
       </c>
       <c r="C23" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D23" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E23" t="n">
-        <v>268.1977203190365</v>
+        <v>268.1977203190364</v>
       </c>
       <c r="F23" t="n">
         <v>282.3655247697376</v>
@@ -2333,10 +2333,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H23" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I23" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875379</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,16 +2366,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>34.48845019277556</v>
+        <v>34.4884501927755</v>
       </c>
       <c r="T23" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059305</v>
       </c>
       <c r="U23" t="n">
-        <v>122.835232954163</v>
+        <v>122.8352329541629</v>
       </c>
       <c r="V23" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879323</v>
       </c>
       <c r="W23" t="n">
         <v>236.929075365811</v>
@@ -2384,7 +2384,7 @@
         <v>255.1981097006893</v>
       </c>
       <c r="Y23" t="n">
-        <v>262.1658326730205</v>
+        <v>262.1658326730204</v>
       </c>
     </row>
     <row r="24">
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880383</v>
       </c>
       <c r="C25" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908623</v>
       </c>
       <c r="D25" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092596</v>
       </c>
       <c r="E25" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380507</v>
       </c>
       <c r="F25" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357234</v>
       </c>
       <c r="G25" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596447</v>
       </c>
       <c r="H25" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253652</v>
       </c>
       <c r="I25" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708446</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369168</v>
       </c>
       <c r="T25" t="n">
         <v>103.0018919978638</v>
       </c>
       <c r="U25" t="n">
-        <v>152.2244345249337</v>
+        <v>152.2244345249336</v>
       </c>
       <c r="V25" t="n">
         <v>132.9595824117996</v>
       </c>
       <c r="W25" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X25" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y25" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593863</v>
       </c>
     </row>
     <row r="26">
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>290.1533409542118</v>
+        <v>283.7098784815732</v>
       </c>
       <c r="C32" t="n">
-        <v>282.9072891820276</v>
+        <v>276.463826709389</v>
       </c>
       <c r="D32" t="n">
-        <v>275.2502601954279</v>
+        <v>268.8067977227892</v>
       </c>
       <c r="E32" t="n">
-        <v>292.2212323345498</v>
+        <v>285.7777698619112</v>
       </c>
       <c r="F32" t="n">
-        <v>306.3890367852509</v>
+        <v>299.9455743126123</v>
       </c>
       <c r="G32" t="n">
-        <v>302.6946706568058</v>
+        <v>296.2512081841671</v>
       </c>
       <c r="H32" t="n">
-        <v>214.5057626291032</v>
+        <v>208.0623001564645</v>
       </c>
       <c r="I32" t="n">
-        <v>30.61728843838874</v>
+        <v>24.1738259657501</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.51196220828886</v>
+        <v>52.06849973565022</v>
       </c>
       <c r="T32" t="n">
-        <v>114.9291391161064</v>
+        <v>108.4856766434678</v>
       </c>
       <c r="U32" t="n">
-        <v>146.8587449696763</v>
+        <v>140.4152824970377</v>
       </c>
       <c r="V32" t="n">
-        <v>232.3492839034457</v>
+        <v>225.9058214308071</v>
       </c>
       <c r="W32" t="n">
-        <v>260.9525873813243</v>
+        <v>254.5091249086857</v>
       </c>
       <c r="X32" t="n">
-        <v>279.2216217162027</v>
+        <v>272.778159243564</v>
       </c>
       <c r="Y32" t="n">
-        <v>286.1893446885338</v>
+        <v>279.7458822158952</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>77.01948120431719</v>
+        <v>70.57601873167854</v>
       </c>
       <c r="C34" t="n">
-        <v>62.16660945459959</v>
+        <v>55.72314698196095</v>
       </c>
       <c r="D34" t="n">
-        <v>47.74032466643932</v>
+        <v>41.29686219380068</v>
       </c>
       <c r="E34" t="n">
-        <v>47.66676671931843</v>
+        <v>41.22330424667979</v>
       </c>
       <c r="F34" t="n">
-        <v>49.4162181390857</v>
+        <v>42.97275566644706</v>
       </c>
       <c r="G34" t="n">
-        <v>60.23505606147783</v>
+        <v>53.79159358883919</v>
       </c>
       <c r="H34" t="n">
-        <v>47.58730822804988</v>
+        <v>41.14384575541123</v>
       </c>
       <c r="I34" t="n">
-        <v>25.42702380922181</v>
+        <v>18.98356133658316</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>16.32552217367773</v>
+        <v>9.882059701039083</v>
       </c>
       <c r="S34" t="n">
-        <v>94.45146567920504</v>
+        <v>88.0080032065664</v>
       </c>
       <c r="T34" t="n">
-        <v>127.0254040133771</v>
+        <v>120.5819415407385</v>
       </c>
       <c r="U34" t="n">
-        <v>176.247946540447</v>
+        <v>169.8044840678083</v>
       </c>
       <c r="V34" t="n">
-        <v>156.9830944273129</v>
+        <v>150.5396319546743</v>
       </c>
       <c r="W34" t="n">
-        <v>174.1606407480631</v>
+        <v>167.7171782754244</v>
       </c>
       <c r="X34" t="n">
-        <v>125.4030616947756</v>
+        <v>118.959599222137</v>
       </c>
       <c r="Y34" t="n">
-        <v>114.544483271452</v>
+        <v>108.1010207988134</v>
       </c>
     </row>
     <row r="35">
@@ -3263,28 +3263,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C35" t="n">
-        <v>258.8837771665143</v>
+        <v>258.8837771665144</v>
       </c>
       <c r="D35" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E35" t="n">
         <v>268.1977203190365</v>
       </c>
       <c r="F35" t="n">
-        <v>282.3655247697376</v>
+        <v>282.3655247697377</v>
       </c>
       <c r="G35" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H35" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I35" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875493</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,22 +3314,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277562</v>
       </c>
       <c r="T35" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059316</v>
       </c>
       <c r="U35" t="n">
         <v>122.835232954163</v>
       </c>
       <c r="V35" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879325</v>
       </c>
       <c r="W35" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X35" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y35" t="n">
         <v>262.1658326730205</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880394</v>
       </c>
       <c r="C37" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908635</v>
       </c>
       <c r="D37" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092607</v>
       </c>
       <c r="E37" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380518</v>
       </c>
       <c r="F37" t="n">
-        <v>25.39270612357237</v>
+        <v>25.39270612357245</v>
       </c>
       <c r="G37" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596459</v>
       </c>
       <c r="H37" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253663</v>
       </c>
       <c r="I37" t="n">
-        <v>1.403511793708475</v>
+        <v>1.40351179370856</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>70.42795366369171</v>
+        <v>70.4279536636918</v>
       </c>
       <c r="T37" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U37" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V37" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W37" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X37" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y37" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593875</v>
       </c>
     </row>
     <row r="38">
@@ -3503,7 +3503,7 @@
         <v>266.1298289386986</v>
       </c>
       <c r="C38" t="n">
-        <v>258.8837771665143</v>
+        <v>258.8837771665144</v>
       </c>
       <c r="D38" t="n">
         <v>251.2267481799146</v>
@@ -3512,16 +3512,16 @@
         <v>268.1977203190365</v>
       </c>
       <c r="F38" t="n">
-        <v>282.3655247697376</v>
+        <v>282.3655247697377</v>
       </c>
       <c r="G38" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H38" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I38" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875493</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,22 +3551,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277562</v>
       </c>
       <c r="T38" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059316</v>
       </c>
       <c r="U38" t="n">
         <v>122.835232954163</v>
       </c>
       <c r="V38" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879325</v>
       </c>
       <c r="W38" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X38" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y38" t="n">
         <v>262.1658326730205</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880394</v>
       </c>
       <c r="C40" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908635</v>
       </c>
       <c r="D40" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092607</v>
       </c>
       <c r="E40" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380518</v>
       </c>
       <c r="F40" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357245</v>
       </c>
       <c r="G40" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596459</v>
       </c>
       <c r="H40" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253663</v>
       </c>
       <c r="I40" t="n">
-        <v>1.403511793708503</v>
+        <v>1.40351179370856</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>70.42795366369174</v>
+        <v>70.4279536636918</v>
       </c>
       <c r="T40" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U40" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V40" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W40" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X40" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y40" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593875</v>
       </c>
     </row>
     <row r="41">
@@ -3737,13 +3737,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C41" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D41" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E41" t="n">
         <v>268.1977203190365</v>
@@ -3755,10 +3755,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H41" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I41" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T41" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U41" t="n">
         <v>122.835232954163</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C43" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D43" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E43" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F43" t="n">
-        <v>25.39270612357237</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G43" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H43" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I43" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T43" t="n">
         <v>103.0018919978638</v>
@@ -3958,13 +3958,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W43" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X43" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y43" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="44">
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>840.2849248562884</v>
+        <v>972.6038884217888</v>
       </c>
       <c r="C2" t="n">
-        <v>840.2849248562884</v>
+        <v>579.4283869247195</v>
       </c>
       <c r="D2" t="n">
-        <v>840.2849248562884</v>
+        <v>466.063157541005</v>
       </c>
       <c r="E2" t="n">
-        <v>840.2849248562884</v>
+        <v>63.47963265754947</v>
       </c>
       <c r="F2" t="n">
-        <v>780.7414653402611</v>
+        <v>50.62559822793129</v>
       </c>
       <c r="G2" t="n">
-        <v>367.5787098282643</v>
+        <v>41.50324675633852</v>
       </c>
       <c r="H2" t="n">
-        <v>43.49565939475492</v>
+        <v>41.50324675633852</v>
       </c>
       <c r="I2" t="n">
-        <v>43.49565939475492</v>
+        <v>41.50324675633852</v>
       </c>
       <c r="J2" t="n">
-        <v>188.145432303583</v>
+        <v>41.50324675633852</v>
       </c>
       <c r="K2" t="n">
-        <v>188.145432303583</v>
+        <v>400.4856027838003</v>
       </c>
       <c r="L2" t="n">
-        <v>188.145432303583</v>
+        <v>893.8058945023292</v>
       </c>
       <c r="M2" t="n">
-        <v>673.8990329354853</v>
+        <v>1376.714099066288</v>
       </c>
       <c r="N2" t="n">
-        <v>1201.710316572947</v>
+        <v>1890.316777675978</v>
       </c>
       <c r="O2" t="n">
-        <v>1641.749917465276</v>
+        <v>1890.316777675978</v>
       </c>
       <c r="P2" t="n">
-        <v>1989.937409596798</v>
+        <v>1890.316777675978</v>
       </c>
       <c r="Q2" t="n">
-        <v>2174.782969737746</v>
+        <v>2075.162337816926</v>
       </c>
       <c r="R2" t="n">
-        <v>2174.782969737746</v>
+        <v>2075.162337816926</v>
       </c>
       <c r="S2" t="n">
-        <v>2008.269414678797</v>
+        <v>2075.162337816926</v>
       </c>
       <c r="T2" t="n">
-        <v>2008.269414678797</v>
+        <v>2075.162337816926</v>
       </c>
       <c r="U2" t="n">
-        <v>2008.269414678797</v>
+        <v>2075.162337816926</v>
       </c>
       <c r="V2" t="n">
-        <v>2008.269414678797</v>
+        <v>1733.055528520445</v>
       </c>
       <c r="W2" t="n">
-        <v>1637.270379647084</v>
+        <v>1362.056493488732</v>
       </c>
       <c r="X2" t="n">
-        <v>1637.270379647084</v>
+        <v>972.6038884217888</v>
       </c>
       <c r="Y2" t="n">
-        <v>1240.779670567685</v>
+        <v>972.6038884217888</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>655.8134179021411</v>
+        <v>840.8692298963695</v>
       </c>
       <c r="C3" t="n">
-        <v>505.1591874622333</v>
+        <v>690.2149994564617</v>
       </c>
       <c r="D3" t="n">
-        <v>375.0702200837136</v>
+        <v>560.126032077942</v>
       </c>
       <c r="E3" t="n">
-        <v>238.6237291946013</v>
+        <v>423.6795411888297</v>
       </c>
       <c r="F3" t="n">
-        <v>114.1919230777331</v>
+        <v>299.2477350719615</v>
       </c>
       <c r="G3" t="n">
-        <v>114.1919230777331</v>
+        <v>179.187917143826</v>
       </c>
       <c r="H3" t="n">
-        <v>43.49565939475492</v>
+        <v>90.89050074442693</v>
       </c>
       <c r="I3" t="n">
-        <v>43.49565939475492</v>
+        <v>41.50324675633852</v>
       </c>
       <c r="J3" t="n">
-        <v>156.6106416144823</v>
+        <v>41.50324675633852</v>
       </c>
       <c r="K3" t="n">
-        <v>476.3497876767087</v>
+        <v>361.242392818565</v>
       </c>
       <c r="L3" t="n">
-        <v>959.915873575022</v>
+        <v>844.8084787168782</v>
       </c>
       <c r="M3" t="n">
-        <v>996.5377244563658</v>
+        <v>1047.956980597548</v>
       </c>
       <c r="N3" t="n">
-        <v>1534.796509466458</v>
+        <v>1561.559659207237</v>
       </c>
       <c r="O3" t="n">
-        <v>1534.796509466458</v>
+        <v>2075.162337816926</v>
       </c>
       <c r="P3" t="n">
-        <v>1940.417878182855</v>
+        <v>2075.162337816926</v>
       </c>
       <c r="Q3" t="n">
-        <v>2174.782969737746</v>
+        <v>2075.162337816926</v>
       </c>
       <c r="R3" t="n">
-        <v>2150.86592663581</v>
+        <v>2051.24529471499</v>
       </c>
       <c r="S3" t="n">
-        <v>2015.935249535679</v>
+        <v>1916.314617614859</v>
       </c>
       <c r="T3" t="n">
-        <v>1838.951437734588</v>
+        <v>1739.330805813768</v>
       </c>
       <c r="U3" t="n">
-        <v>1628.888294413229</v>
+        <v>1529.267662492409</v>
       </c>
       <c r="V3" t="n">
-        <v>1406.348292784297</v>
+        <v>1306.727660863477</v>
       </c>
       <c r="W3" t="n">
-        <v>1176.231046917583</v>
+        <v>1076.610414996763</v>
       </c>
       <c r="X3" t="n">
-        <v>986.9239692675951</v>
+        <v>1076.610414996763</v>
       </c>
       <c r="Y3" t="n">
-        <v>807.6097523431024</v>
+        <v>992.6655643373308</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>213.7007773287657</v>
+        <v>1173.715315275374</v>
       </c>
       <c r="C4" t="n">
-        <v>43.49565939475492</v>
+        <v>1173.715315275374</v>
       </c>
       <c r="D4" t="n">
-        <v>43.49565939475492</v>
+        <v>1173.715315275374</v>
       </c>
       <c r="E4" t="n">
-        <v>43.49565939475492</v>
+        <v>1173.715315275374</v>
       </c>
       <c r="F4" t="n">
-        <v>43.49565939475492</v>
+        <v>1173.715315275374</v>
       </c>
       <c r="G4" t="n">
-        <v>43.49565939475492</v>
+        <v>1173.715315275374</v>
       </c>
       <c r="H4" t="n">
-        <v>43.49565939475492</v>
+        <v>1173.715315275374</v>
       </c>
       <c r="I4" t="n">
-        <v>43.49565939475492</v>
+        <v>1173.715315275374</v>
       </c>
       <c r="J4" t="n">
-        <v>43.49565939475492</v>
+        <v>1173.715315275374</v>
       </c>
       <c r="K4" t="n">
-        <v>125.3307005046968</v>
+        <v>1255.550356385315</v>
       </c>
       <c r="L4" t="n">
-        <v>289.4583403784966</v>
+        <v>1419.677996259115</v>
       </c>
       <c r="M4" t="n">
-        <v>475.7499187167606</v>
+        <v>1605.969574597379</v>
       </c>
       <c r="N4" t="n">
-        <v>658.9395527479699</v>
+        <v>1789.159208628588</v>
       </c>
       <c r="O4" t="n">
-        <v>821.6443197896779</v>
+        <v>1951.863975670296</v>
       </c>
       <c r="P4" t="n">
-        <v>941.5204855662564</v>
+        <v>2071.740141446875</v>
       </c>
       <c r="Q4" t="n">
-        <v>944.9426819363074</v>
+        <v>2075.162337816926</v>
       </c>
       <c r="R4" t="n">
-        <v>821.0416925688844</v>
+        <v>2075.162337816926</v>
       </c>
       <c r="S4" t="n">
-        <v>821.0416925688844</v>
+        <v>2075.162337816926</v>
       </c>
       <c r="T4" t="n">
-        <v>821.0416925688844</v>
+        <v>1865.365797218854</v>
       </c>
       <c r="U4" t="n">
-        <v>821.0416925688844</v>
+        <v>1865.365797218854</v>
       </c>
       <c r="V4" t="n">
-        <v>821.0416925688844</v>
+        <v>1865.365797218854</v>
       </c>
       <c r="W4" t="n">
-        <v>821.0416925688844</v>
+        <v>1582.035395150031</v>
       </c>
       <c r="X4" t="n">
-        <v>622.0208572034236</v>
+        <v>1582.035395150031</v>
       </c>
       <c r="Y4" t="n">
-        <v>398.908796020067</v>
+        <v>1358.923333966675</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>971.9222163910388</v>
+        <v>1719.421736862734</v>
       </c>
       <c r="C5" t="n">
-        <v>971.9222163910388</v>
+        <v>1719.421736862734</v>
       </c>
       <c r="D5" t="n">
-        <v>971.9222163910388</v>
+        <v>1333.980608079402</v>
       </c>
       <c r="E5" t="n">
-        <v>971.9222163910388</v>
+        <v>1333.980608079402</v>
       </c>
       <c r="F5" t="n">
-        <v>555.0277779210165</v>
+        <v>917.0861696093799</v>
       </c>
       <c r="G5" t="n">
-        <v>141.8650224090197</v>
+        <v>503.923414097383</v>
       </c>
       <c r="H5" t="n">
-        <v>43.49565939475492</v>
+        <v>179.8403636638737</v>
       </c>
       <c r="I5" t="n">
-        <v>43.49565939475492</v>
+        <v>41.50324675633852</v>
       </c>
       <c r="J5" t="n">
-        <v>188.145432303583</v>
+        <v>41.50324675633852</v>
       </c>
       <c r="K5" t="n">
-        <v>547.1277883310449</v>
+        <v>41.50324675633852</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.448080049574</v>
+        <v>534.8235384748674</v>
       </c>
       <c r="M5" t="n">
-        <v>1201.710316572947</v>
+        <v>1048.426217084557</v>
       </c>
       <c r="N5" t="n">
-        <v>1201.710316572947</v>
+        <v>1450.277176783649</v>
       </c>
       <c r="O5" t="n">
-        <v>1641.749917465276</v>
+        <v>1890.316777675978</v>
       </c>
       <c r="P5" t="n">
-        <v>1989.937409596798</v>
+        <v>1890.316777675978</v>
       </c>
       <c r="Q5" t="n">
-        <v>2174.782969737746</v>
+        <v>2075.162337816926</v>
       </c>
       <c r="R5" t="n">
-        <v>2136.790056023268</v>
+        <v>2037.169424102448</v>
       </c>
       <c r="S5" t="n">
-        <v>1970.276500964319</v>
+        <v>1942.922339303318</v>
       </c>
       <c r="T5" t="n">
-        <v>1970.276500964319</v>
+        <v>1719.421736862734</v>
       </c>
       <c r="U5" t="n">
-        <v>1714.523771398917</v>
+        <v>1719.421736862734</v>
       </c>
       <c r="V5" t="n">
-        <v>1372.416962102436</v>
+        <v>1719.421736862734</v>
       </c>
       <c r="W5" t="n">
-        <v>1372.416962102436</v>
+        <v>1719.421736862734</v>
       </c>
       <c r="X5" t="n">
-        <v>1372.416962102436</v>
+        <v>1719.421736862734</v>
       </c>
       <c r="Y5" t="n">
-        <v>1372.416962102436</v>
+        <v>1719.421736862734</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>842.8616425347859</v>
+        <v>584.3629210791216</v>
       </c>
       <c r="C6" t="n">
-        <v>692.2074120948781</v>
+        <v>433.7086906392138</v>
       </c>
       <c r="D6" t="n">
-        <v>562.1184447163585</v>
+        <v>303.6197232606942</v>
       </c>
       <c r="E6" t="n">
-        <v>425.6719538272461</v>
+        <v>303.6197232606942</v>
       </c>
       <c r="F6" t="n">
-        <v>301.2401477103779</v>
+        <v>179.187917143826</v>
       </c>
       <c r="G6" t="n">
-        <v>181.1803297822424</v>
+        <v>179.187917143826</v>
       </c>
       <c r="H6" t="n">
-        <v>92.88291338284333</v>
+        <v>90.89050074442693</v>
       </c>
       <c r="I6" t="n">
-        <v>43.49565939475492</v>
+        <v>41.50324675633852</v>
       </c>
       <c r="J6" t="n">
-        <v>43.49565939475492</v>
+        <v>41.50324675633852</v>
       </c>
       <c r="K6" t="n">
-        <v>363.2348054569813</v>
+        <v>41.50324675633852</v>
       </c>
       <c r="L6" t="n">
-        <v>363.2348054569813</v>
+        <v>525.0693326546518</v>
       </c>
       <c r="M6" t="n">
-        <v>480.0174418653847</v>
+        <v>525.0693326546518</v>
       </c>
       <c r="N6" t="n">
-        <v>1018.276226875477</v>
+        <v>921.5731989359489</v>
       </c>
       <c r="O6" t="n">
-        <v>1534.796509466458</v>
+        <v>1435.175877545638</v>
       </c>
       <c r="P6" t="n">
-        <v>1940.417878182855</v>
+        <v>1840.797246262036</v>
       </c>
       <c r="Q6" t="n">
-        <v>2174.782969737746</v>
+        <v>2075.162337816926</v>
       </c>
       <c r="R6" t="n">
-        <v>2174.782969737746</v>
+        <v>2051.24529471499</v>
       </c>
       <c r="S6" t="n">
-        <v>2174.782969737746</v>
+        <v>1916.314617614859</v>
       </c>
       <c r="T6" t="n">
-        <v>2025.999662367233</v>
+        <v>1739.330805813768</v>
       </c>
       <c r="U6" t="n">
-        <v>1815.936519045874</v>
+        <v>1557.43779759021</v>
       </c>
       <c r="V6" t="n">
-        <v>1593.396517416941</v>
+        <v>1334.897795961277</v>
       </c>
       <c r="W6" t="n">
-        <v>1363.279271550228</v>
+        <v>1104.780550094564</v>
       </c>
       <c r="X6" t="n">
-        <v>1173.97219390024</v>
+        <v>915.4734724445757</v>
       </c>
       <c r="Y6" t="n">
-        <v>994.6579769757473</v>
+        <v>736.159255520083</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>190.7084611815819</v>
+        <v>395.7686839282763</v>
       </c>
       <c r="C7" t="n">
-        <v>190.7084611815819</v>
+        <v>395.7686839282763</v>
       </c>
       <c r="D7" t="n">
-        <v>190.7084611815819</v>
+        <v>240.135570830791</v>
       </c>
       <c r="E7" t="n">
-        <v>43.49565939475492</v>
+        <v>240.135570830791</v>
       </c>
       <c r="F7" t="n">
-        <v>43.49565939475492</v>
+        <v>240.135570830791</v>
       </c>
       <c r="G7" t="n">
-        <v>43.49565939475492</v>
+        <v>71.88151693023657</v>
       </c>
       <c r="H7" t="n">
-        <v>43.49565939475492</v>
+        <v>71.88151693023657</v>
       </c>
       <c r="I7" t="n">
-        <v>43.49565939475492</v>
+        <v>71.88151693023657</v>
       </c>
       <c r="J7" t="n">
-        <v>43.49565939475492</v>
+        <v>41.50324675633852</v>
       </c>
       <c r="K7" t="n">
-        <v>125.3307005046968</v>
+        <v>123.3382878662804</v>
       </c>
       <c r="L7" t="n">
-        <v>289.4583403784966</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M7" t="n">
-        <v>475.7499187167606</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N7" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O7" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P7" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="S7" t="n">
-        <v>742.1265981188567</v>
+        <v>740.1341854804402</v>
       </c>
       <c r="T7" t="n">
-        <v>742.1265981188567</v>
+        <v>580.9767026195775</v>
       </c>
       <c r="U7" t="n">
-        <v>456.6878063607576</v>
+        <v>580.9767026195775</v>
       </c>
       <c r="V7" t="n">
-        <v>190.7084611815819</v>
+        <v>580.9767026195775</v>
       </c>
       <c r="W7" t="n">
-        <v>190.7084611815819</v>
+        <v>580.9767026195775</v>
       </c>
       <c r="X7" t="n">
-        <v>190.7084611815819</v>
+        <v>580.9767026195775</v>
       </c>
       <c r="Y7" t="n">
-        <v>190.7084611815819</v>
+        <v>580.9767026195775</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2196.907436154955</v>
+        <v>531.7095233437991</v>
       </c>
       <c r="C8" t="n">
-        <v>1803.731934657886</v>
+        <v>531.7095233437991</v>
       </c>
       <c r="D8" t="n">
-        <v>1418.290805874553</v>
+        <v>531.7095233437991</v>
       </c>
       <c r="E8" t="n">
-        <v>1015.707280991098</v>
+        <v>531.7095233437991</v>
       </c>
       <c r="F8" t="n">
-        <v>598.8128425210757</v>
+        <v>518.8554889141809</v>
       </c>
       <c r="G8" t="n">
-        <v>185.6500870090788</v>
+        <v>509.7331374425881</v>
       </c>
       <c r="H8" t="n">
         <v>185.6500870090788</v>
@@ -4805,49 +4805,49 @@
         <v>47.31297010154361</v>
       </c>
       <c r="K8" t="n">
-        <v>406.2953261290054</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="L8" t="n">
-        <v>899.6156178475343</v>
+        <v>540.6332618200724</v>
       </c>
       <c r="M8" t="n">
-        <v>1445.616517892115</v>
+        <v>1086.634161864653</v>
       </c>
       <c r="N8" t="n">
-        <v>1973.427801529577</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="O8" t="n">
-        <v>2365.64850507718</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P8" t="n">
-        <v>2365.64850507718</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q8" t="n">
         <v>2365.64850507718</v>
       </c>
       <c r="R8" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S8" t="n">
-        <v>2199.134950018231</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="T8" t="n">
-        <v>2199.134950018231</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="U8" t="n">
-        <v>2199.134950018231</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="V8" t="n">
-        <v>2199.134950018231</v>
+        <v>1339.781895001287</v>
       </c>
       <c r="W8" t="n">
-        <v>2199.134950018231</v>
+        <v>1328.694978134595</v>
       </c>
       <c r="X8" t="n">
-        <v>2199.134950018231</v>
+        <v>1328.694978134595</v>
       </c>
       <c r="Y8" t="n">
-        <v>2199.134950018231</v>
+        <v>932.2042690551959</v>
       </c>
     </row>
     <row r="9">
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>47.31297010154361</v>
+        <v>558.933721388756</v>
       </c>
       <c r="C10" t="n">
-        <v>47.31297010154361</v>
+        <v>388.7286034547452</v>
       </c>
       <c r="D10" t="n">
-        <v>47.31297010154361</v>
+        <v>388.7286034547452</v>
       </c>
       <c r="E10" t="n">
-        <v>47.31297010154361</v>
+        <v>233.1697913139477</v>
       </c>
       <c r="F10" t="n">
-        <v>47.31297010154361</v>
+        <v>233.1697913139477</v>
       </c>
       <c r="G10" t="n">
-        <v>47.31297010154361</v>
+        <v>233.1697913139477</v>
       </c>
       <c r="H10" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="I10" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="J10" t="n">
         <v>47.31297010154361</v>
@@ -4996,16 +4996,16 @@
         <v>948.7599926430961</v>
       </c>
       <c r="V10" t="n">
-        <v>787.8357555707396</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="W10" t="n">
-        <v>504.5053535019172</v>
+        <v>744.1417400800573</v>
       </c>
       <c r="X10" t="n">
-        <v>270.4250312849002</v>
+        <v>744.1417400800573</v>
       </c>
       <c r="Y10" t="n">
-        <v>47.31297010154361</v>
+        <v>744.1417400800573</v>
       </c>
     </row>
     <row r="11">
@@ -5015,28 +5015,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1719.577864530541</v>
+        <v>1459.710229057664</v>
       </c>
       <c r="C11" t="n">
-        <v>1398.198638179666</v>
+        <v>1138.331002706788</v>
       </c>
       <c r="D11" t="n">
-        <v>1398.198638179666</v>
+        <v>824.6861490696501</v>
       </c>
       <c r="E11" t="n">
-        <v>1067.411388442404</v>
+        <v>815.1246131550881</v>
       </c>
       <c r="F11" t="n">
-        <v>722.3132251185755</v>
+        <v>470.0264498312597</v>
       </c>
       <c r="G11" t="n">
-        <v>380.9467447527724</v>
+        <v>128.6599694654568</v>
       </c>
       <c r="H11" t="n">
-        <v>128.6599694654569</v>
+        <v>128.6599694654568</v>
       </c>
       <c r="I11" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="J11" t="n">
         <v>206.7689006129436</v>
@@ -5057,34 +5057,34 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P11" t="n">
-        <v>2921.110825064828</v>
+        <v>2921.110825064827</v>
       </c>
       <c r="Q11" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205775</v>
       </c>
       <c r="R11" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205775</v>
       </c>
       <c r="S11" t="n">
-        <v>3105.956385205776</v>
+        <v>3011.23910529302</v>
       </c>
       <c r="T11" t="n">
-        <v>2954.252057911387</v>
+        <v>2859.53477799863</v>
       </c>
       <c r="U11" t="n">
-        <v>2931.441922420302</v>
+        <v>2675.578323579422</v>
       </c>
       <c r="V11" t="n">
-        <v>2661.131388270014</v>
+        <v>2405.267789429135</v>
       </c>
       <c r="W11" t="n">
-        <v>2361.928628384495</v>
+        <v>2106.065029543616</v>
       </c>
       <c r="X11" t="n">
-        <v>2044.272298463746</v>
+        <v>1788.408699622867</v>
       </c>
       <c r="Y11" t="n">
-        <v>1719.577864530541</v>
+        <v>1788.408699622867</v>
       </c>
     </row>
     <row r="12">
@@ -5103,10 +5103,10 @@
         <v>580.741913025719</v>
       </c>
       <c r="E12" t="n">
-        <v>444.2954221366068</v>
+        <v>444.2954221366067</v>
       </c>
       <c r="F12" t="n">
-        <v>319.8636160197386</v>
+        <v>319.8636160197385</v>
       </c>
       <c r="G12" t="n">
         <v>199.803798091603</v>
@@ -5115,25 +5115,25 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I12" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="J12" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="K12" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="L12" t="n">
-        <v>545.6852136024288</v>
+        <v>174.7633905351325</v>
       </c>
       <c r="M12" t="n">
-        <v>1173.45686322911</v>
+        <v>802.5350401618138</v>
       </c>
       <c r="N12" t="n">
-        <v>1829.234834439669</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O12" t="n">
-        <v>2345.75511703065</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P12" t="n">
         <v>2380.454662679751</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>290.9363917644473</v>
+        <v>340.8225871975843</v>
       </c>
       <c r="C13" t="n">
-        <v>290.9363917644473</v>
+        <v>242.4137444097674</v>
       </c>
       <c r="D13" t="n">
-        <v>207.099553813156</v>
+        <v>158.5769064584761</v>
       </c>
       <c r="E13" t="n">
-        <v>207.099553813156</v>
+        <v>158.5769064584761</v>
       </c>
       <c r="F13" t="n">
-        <v>207.099553813156</v>
+        <v>158.5769064584761</v>
       </c>
       <c r="G13" t="n">
-        <v>207.099553813156</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="H13" t="n">
-        <v>123.4172779208438</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="I13" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="J13" t="n">
-        <v>102.7129143774625</v>
+        <v>102.7129143774627</v>
       </c>
       <c r="K13" t="n">
-        <v>254.915484758189</v>
+        <v>254.9154847581892</v>
       </c>
       <c r="L13" t="n">
-        <v>489.4106539027732</v>
+        <v>489.4106539027737</v>
       </c>
       <c r="M13" t="n">
-        <v>746.0697615118218</v>
+        <v>746.0697615118222</v>
       </c>
       <c r="N13" t="n">
-        <v>999.6269248138155</v>
+        <v>999.626924813816</v>
       </c>
       <c r="O13" t="n">
-        <v>1232.699221126308</v>
+        <v>1232.699221126309</v>
       </c>
       <c r="P13" t="n">
-        <v>1422.942916173671</v>
+        <v>1422.942916173672</v>
       </c>
       <c r="Q13" t="n">
-        <v>1496.732641814507</v>
+        <v>1496.732641814508</v>
       </c>
       <c r="R13" t="n">
-        <v>1444.627927593277</v>
+        <v>1496.732641814508</v>
       </c>
       <c r="S13" t="n">
-        <v>1387.818715125521</v>
+        <v>1365.712833143251</v>
       </c>
       <c r="T13" t="n">
-        <v>1223.895938439949</v>
+        <v>1201.790056457679</v>
       </c>
       <c r="U13" t="n">
-        <v>1010.253421828044</v>
+        <v>988.147539845774</v>
       </c>
       <c r="V13" t="n">
-        <v>816.0703517950617</v>
+        <v>793.9644698127921</v>
       </c>
       <c r="W13" t="n">
-        <v>604.5362248724332</v>
+        <v>582.4303428901637</v>
       </c>
       <c r="X13" t="n">
-        <v>442.2521778016101</v>
+        <v>492.1383732347471</v>
       </c>
       <c r="Y13" t="n">
-        <v>290.9363917644473</v>
+        <v>340.8225871975843</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1874.686986489887</v>
+        <v>2033.222718167679</v>
       </c>
       <c r="C14" t="n">
-        <v>1553.307760139011</v>
+        <v>1711.843491816803</v>
       </c>
       <c r="D14" t="n">
-        <v>1331.657796418324</v>
+        <v>1398.198638179665</v>
       </c>
       <c r="E14" t="n">
-        <v>1000.870546681062</v>
+        <v>1067.411388442403</v>
       </c>
       <c r="F14" t="n">
-        <v>655.7723833572338</v>
+        <v>722.313225118575</v>
       </c>
       <c r="G14" t="n">
-        <v>314.4059029914309</v>
+        <v>380.9467447527721</v>
       </c>
       <c r="H14" t="n">
-        <v>62.11912770411553</v>
+        <v>128.6599694654568</v>
       </c>
       <c r="I14" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="J14" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129435</v>
       </c>
       <c r="K14" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404052</v>
       </c>
       <c r="L14" t="n">
         <v>1059.071548358934</v>
       </c>
       <c r="M14" t="n">
-        <v>1605.072448403515</v>
+        <v>1605.072448403514</v>
       </c>
       <c r="N14" t="n">
         <v>2132.883732040977</v>
       </c>
       <c r="O14" t="n">
-        <v>2572.923332933306</v>
+        <v>2572.923332933305</v>
       </c>
       <c r="P14" t="n">
-        <v>2921.110825064828</v>
+        <v>2921.110825064827</v>
       </c>
       <c r="Q14" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205775</v>
       </c>
       <c r="R14" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205775</v>
       </c>
       <c r="S14" t="n">
-        <v>3011.239105293021</v>
+        <v>3011.23910529302</v>
       </c>
       <c r="T14" t="n">
-        <v>3011.239105293021</v>
+        <v>2859.53477799863</v>
       </c>
       <c r="U14" t="n">
-        <v>2827.282650873814</v>
+        <v>2859.53477799863</v>
       </c>
       <c r="V14" t="n">
-        <v>2827.282650873814</v>
+        <v>2859.53477799863</v>
       </c>
       <c r="W14" t="n">
-        <v>2528.079890988295</v>
+        <v>2859.53477799863</v>
       </c>
       <c r="X14" t="n">
-        <v>2528.079890988295</v>
+        <v>2686.615622666087</v>
       </c>
       <c r="Y14" t="n">
-        <v>2203.38545705509</v>
+        <v>2361.921188732882</v>
       </c>
     </row>
     <row r="15">
@@ -5340,10 +5340,10 @@
         <v>580.741913025719</v>
       </c>
       <c r="E15" t="n">
-        <v>444.2954221366068</v>
+        <v>444.2954221366067</v>
       </c>
       <c r="F15" t="n">
-        <v>319.8636160197386</v>
+        <v>319.8636160197385</v>
       </c>
       <c r="G15" t="n">
         <v>199.803798091603</v>
@@ -5352,28 +5352,28 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I15" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="J15" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="K15" t="n">
-        <v>494.9732559860694</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="L15" t="n">
-        <v>978.5393418843826</v>
+        <v>346.0196676966397</v>
       </c>
       <c r="M15" t="n">
-        <v>1606.310991511064</v>
+        <v>973.7913173233209</v>
       </c>
       <c r="N15" t="n">
-        <v>2262.088962721623</v>
+        <v>1629.56928853388</v>
       </c>
       <c r="O15" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="P15" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q15" t="n">
         <v>2380.454662679751</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>450.3613515938994</v>
+        <v>305.4047163160374</v>
       </c>
       <c r="C16" t="n">
-        <v>351.9525088060825</v>
+        <v>305.4047163160374</v>
       </c>
       <c r="D16" t="n">
-        <v>268.1156708547912</v>
+        <v>305.4047163160374</v>
       </c>
       <c r="E16" t="n">
-        <v>268.1156708547912</v>
+        <v>305.4047163160374</v>
       </c>
       <c r="F16" t="n">
-        <v>182.586011213958</v>
+        <v>219.8750566752042</v>
       </c>
       <c r="G16" t="n">
-        <v>86.12823245959748</v>
+        <v>123.4172779208437</v>
       </c>
       <c r="H16" t="n">
-        <v>62.11912770411553</v>
+        <v>123.4172779208437</v>
       </c>
       <c r="I16" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="J16" t="n">
         <v>102.7129143774627</v>
@@ -5446,7 +5446,7 @@
         <v>746.0697615118224</v>
       </c>
       <c r="N16" t="n">
-        <v>999.6269248138162</v>
+        <v>999.6269248138163</v>
       </c>
       <c r="O16" t="n">
         <v>1232.699221126309</v>
@@ -5458,28 +5458,28 @@
         <v>1496.732641814508</v>
       </c>
       <c r="R16" t="n">
-        <v>1496.732641814508</v>
+        <v>1444.627927593279</v>
       </c>
       <c r="S16" t="n">
-        <v>1496.732641814508</v>
+        <v>1444.627927593279</v>
       </c>
       <c r="T16" t="n">
-        <v>1496.732641814508</v>
+        <v>1280.705150907707</v>
       </c>
       <c r="U16" t="n">
-        <v>1283.090125202603</v>
+        <v>1067.062634295802</v>
       </c>
       <c r="V16" t="n">
-        <v>1088.907055169621</v>
+        <v>872.8795642628199</v>
       </c>
       <c r="W16" t="n">
-        <v>877.3729282469925</v>
+        <v>661.3454373401914</v>
       </c>
       <c r="X16" t="n">
-        <v>715.0888811761695</v>
+        <v>570.1322458983075</v>
       </c>
       <c r="Y16" t="n">
-        <v>563.7730951390067</v>
+        <v>418.8164598611447</v>
       </c>
     </row>
     <row r="17">
@@ -5495,19 +5495,19 @@
         <v>1352.560722599516</v>
       </c>
       <c r="D17" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975456</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099318</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G17" t="n">
-        <v>261.1858216803435</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H17" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I17" t="n">
         <v>62.11912770411553</v>
@@ -5558,7 +5558,7 @@
         <v>2147.691468840156</v>
       </c>
       <c r="Y17" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="18">
@@ -5601,7 +5601,7 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M18" t="n">
-        <v>978.5393418843826</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N18" t="n">
         <v>1223.947919817482</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C19" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D19" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E19" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F19" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G19" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H19" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I19" t="n">
         <v>62.11912770411553</v>
@@ -5680,19 +5680,19 @@
         <v>308.0818086878572</v>
       </c>
       <c r="M19" t="n">
-        <v>494.3733870261212</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N19" t="n">
-        <v>677.5630210573304</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O19" t="n">
-        <v>840.2677880990384</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P19" t="n">
-        <v>965.7235964838002</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q19" t="n">
-        <v>1098.20216247628</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R19" t="n">
         <v>1098.20216247628</v>
@@ -5701,22 +5701,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T19" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U19" t="n">
-        <v>769.2584451161897</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V19" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W19" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X19" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y19" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="20">
@@ -5729,31 +5729,31 @@
         <v>1614.059487414177</v>
       </c>
       <c r="C20" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599517</v>
       </c>
       <c r="D20" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E20" t="n">
-        <v>827.8895422975454</v>
+        <v>827.8895422975459</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099316</v>
+        <v>542.6718405099323</v>
       </c>
       <c r="G20" t="n">
-        <v>261.1858216803432</v>
+        <v>261.1858216803439</v>
       </c>
       <c r="H20" t="n">
-        <v>68.7795079292424</v>
+        <v>68.77950792924217</v>
       </c>
       <c r="I20" t="n">
-        <v>62.11912770411573</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J20" t="n">
-        <v>206.7689006129438</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K20" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L20" t="n">
         <v>1059.071548358934</v>
@@ -5777,7 +5777,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S20" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T20" t="n">
         <v>2979.295701071061</v>
@@ -5789,13 +5789,13 @@
         <v>2644.789635573994</v>
       </c>
       <c r="W20" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X20" t="n">
         <v>2147.691468840156</v>
       </c>
       <c r="Y20" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="21">
@@ -5832,22 +5832,22 @@
         <v>175.2341099238429</v>
       </c>
       <c r="K21" t="n">
-        <v>175.2341099238429</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L21" t="n">
-        <v>658.8001958221562</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M21" t="n">
-        <v>1286.571845448837</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N21" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O21" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P21" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q21" t="n">
         <v>2380.454662679751</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>235.9319791885592</v>
+        <v>235.931979188559</v>
       </c>
       <c r="C22" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369567</v>
       </c>
       <c r="D22" t="n">
-        <v>173.4472215218802</v>
+        <v>173.44722152188</v>
       </c>
       <c r="E22" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634911</v>
       </c>
       <c r="F22" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588725</v>
       </c>
       <c r="G22" t="n">
-        <v>87.33863074072667</v>
+        <v>87.3386307407266</v>
       </c>
       <c r="H22" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462911</v>
       </c>
       <c r="I22" t="n">
         <v>62.11912770411553</v>
@@ -5911,49 +5911,49 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K22" t="n">
-        <v>273.0105384364859</v>
+        <v>149.5338114222403</v>
       </c>
       <c r="L22" t="n">
-        <v>437.1381783102858</v>
+        <v>442.7178209184686</v>
       </c>
       <c r="M22" t="n">
-        <v>629.0093992567331</v>
+        <v>629.0093992567326</v>
       </c>
       <c r="N22" t="n">
-        <v>812.1990332879423</v>
+        <v>812.1990332879418</v>
       </c>
       <c r="O22" t="n">
-        <v>974.9038003296503</v>
+        <v>974.9038003296498</v>
       </c>
       <c r="P22" t="n">
-        <v>1094.779966106229</v>
+        <v>1094.779966106228</v>
       </c>
       <c r="Q22" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476279</v>
       </c>
       <c r="R22" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476279</v>
       </c>
       <c r="S22" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341237</v>
       </c>
       <c r="T22" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918799</v>
       </c>
       <c r="U22" t="n">
-        <v>769.2584451161897</v>
+        <v>769.2584451161894</v>
       </c>
       <c r="V22" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194221</v>
       </c>
       <c r="W22" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330083</v>
       </c>
       <c r="X22" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856983999</v>
       </c>
       <c r="Y22" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974517</v>
       </c>
     </row>
     <row r="23">
@@ -5963,10 +5963,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414176</v>
       </c>
       <c r="C23" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D23" t="n">
         <v>1098.796330498592</v>
@@ -5981,16 +5981,16 @@
         <v>261.185821680343</v>
       </c>
       <c r="H23" t="n">
-        <v>68.77950792924243</v>
+        <v>68.77950792924217</v>
       </c>
       <c r="I23" t="n">
-        <v>62.11912770411573</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J23" t="n">
-        <v>206.7689006129438</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K23" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L23" t="n">
         <v>1059.071548358934</v>
@@ -6014,22 +6014,22 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S23" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T23" t="n">
         <v>2979.295701071061</v>
       </c>
       <c r="U23" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188067</v>
       </c>
       <c r="V23" t="n">
         <v>2644.789635573994</v>
       </c>
       <c r="W23" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X23" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y23" t="n">
         <v>1882.877496443165</v>
@@ -6066,16 +6066,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J24" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K24" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L24" t="n">
-        <v>865.4243596646552</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="M24" t="n">
-        <v>865.4243596646552</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="N24" t="n">
         <v>1223.947919817482</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>235.9319791885594</v>
+        <v>235.931979188559</v>
       </c>
       <c r="C25" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369567</v>
       </c>
       <c r="D25" t="n">
-        <v>173.4472215218803</v>
+        <v>173.44722152188</v>
       </c>
       <c r="E25" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634911</v>
       </c>
       <c r="F25" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588725</v>
       </c>
       <c r="G25" t="n">
-        <v>87.33863074072673</v>
+        <v>87.3386307407266</v>
       </c>
       <c r="H25" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462911</v>
       </c>
       <c r="I25" t="n">
         <v>62.11912770411553</v>
@@ -6148,49 +6148,49 @@
         <v>161.4017547291066</v>
       </c>
       <c r="K25" t="n">
-        <v>278.5901810446697</v>
+        <v>243.2367958390485</v>
       </c>
       <c r="L25" t="n">
-        <v>442.7178209184696</v>
+        <v>407.3644357128483</v>
       </c>
       <c r="M25" t="n">
-        <v>629.0093992567336</v>
+        <v>629.0093992567326</v>
       </c>
       <c r="N25" t="n">
-        <v>812.1990332879427</v>
+        <v>812.1990332879418</v>
       </c>
       <c r="O25" t="n">
-        <v>974.9038003296507</v>
+        <v>974.9038003296498</v>
       </c>
       <c r="P25" t="n">
-        <v>1094.779966106229</v>
+        <v>1094.779966106228</v>
       </c>
       <c r="Q25" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476279</v>
       </c>
       <c r="R25" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476279</v>
       </c>
       <c r="S25" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341237</v>
       </c>
       <c r="T25" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918799</v>
       </c>
       <c r="U25" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161894</v>
       </c>
       <c r="V25" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194221</v>
       </c>
       <c r="W25" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330083</v>
       </c>
       <c r="X25" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856983999</v>
       </c>
       <c r="Y25" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974517</v>
       </c>
     </row>
     <row r="26">
@@ -6224,25 +6224,25 @@
         <v>73.36485894755025</v>
       </c>
       <c r="J26" t="n">
-        <v>311.0659935859517</v>
+        <v>247.9841471387995</v>
       </c>
       <c r="K26" t="n">
-        <v>670.0483496134135</v>
+        <v>700.0178648958346</v>
       </c>
       <c r="L26" t="n">
-        <v>1256.420003061516</v>
+        <v>1286.389518343937</v>
       </c>
       <c r="M26" t="n">
-        <v>1895.47226483567</v>
+        <v>1925.441780118091</v>
       </c>
       <c r="N26" t="n">
-        <v>2516.334910202705</v>
+        <v>2453.253063755553</v>
       </c>
       <c r="O26" t="n">
-        <v>3049.425872824607</v>
+        <v>2893.292664647881</v>
       </c>
       <c r="P26" t="n">
-        <v>3427.58288023855</v>
+        <v>3334.531518508977</v>
       </c>
       <c r="Q26" t="n">
         <v>3612.428440379499</v>
@@ -6306,22 +6306,22 @@
         <v>186.4798411672776</v>
       </c>
       <c r="K27" t="n">
-        <v>506.2189872295041</v>
+        <v>186.4798411672776</v>
       </c>
       <c r="L27" t="n">
-        <v>989.7850731278173</v>
+        <v>579.4156798503576</v>
       </c>
       <c r="M27" t="n">
-        <v>1469.558742615807</v>
+        <v>579.4156798503576</v>
       </c>
       <c r="N27" t="n">
-        <v>1469.558742615807</v>
+        <v>1235.193651060917</v>
       </c>
       <c r="O27" t="n">
-        <v>1986.079025206788</v>
+        <v>1751.713933651898</v>
       </c>
       <c r="P27" t="n">
-        <v>2391.700393923186</v>
+        <v>2157.335302368295</v>
       </c>
       <c r="Q27" t="n">
         <v>2391.700393923186</v>
@@ -6464,22 +6464,22 @@
         <v>311.0659935859517</v>
       </c>
       <c r="K29" t="n">
-        <v>670.0483496134135</v>
+        <v>763.0997113429868</v>
       </c>
       <c r="L29" t="n">
-        <v>1256.420003061516</v>
+        <v>1286.389518343938</v>
       </c>
       <c r="M29" t="n">
-        <v>1895.47226483567</v>
+        <v>1925.441780118092</v>
       </c>
       <c r="N29" t="n">
-        <v>2423.283548473132</v>
+        <v>2546.304425485127</v>
       </c>
       <c r="O29" t="n">
-        <v>2893.292664647882</v>
+        <v>2986.344026377456</v>
       </c>
       <c r="P29" t="n">
-        <v>3334.531518508978</v>
+        <v>3427.582880238551</v>
       </c>
       <c r="Q29" t="n">
         <v>3612.4284403795</v>
@@ -6543,16 +6543,16 @@
         <v>186.4798411672776</v>
       </c>
       <c r="K30" t="n">
-        <v>506.2189872295041</v>
+        <v>186.4798411672776</v>
       </c>
       <c r="L30" t="n">
-        <v>989.7850731278173</v>
+        <v>186.4798411672776</v>
       </c>
       <c r="M30" t="n">
-        <v>1617.556722754498</v>
+        <v>579.4156798503576</v>
       </c>
       <c r="N30" t="n">
-        <v>1751.713933651898</v>
+        <v>1235.193651060917</v>
       </c>
       <c r="O30" t="n">
         <v>1751.713933651898</v>
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1791.351124222129</v>
+        <v>1743.798875918591</v>
       </c>
       <c r="C32" t="n">
-        <v>1505.586185654425</v>
+        <v>1464.542485303047</v>
       </c>
       <c r="D32" t="n">
-        <v>1227.555619800457</v>
+        <v>1193.02046740124</v>
       </c>
       <c r="E32" t="n">
-        <v>932.3826578463663</v>
+        <v>904.3560533993091</v>
       </c>
       <c r="F32" t="n">
-        <v>622.8987823057088</v>
+        <v>601.3807258108118</v>
       </c>
       <c r="G32" t="n">
-        <v>317.1465897230767</v>
+        <v>302.1370811803399</v>
       </c>
       <c r="H32" t="n">
-        <v>100.474102218932</v>
+        <v>91.97314162835538</v>
       </c>
       <c r="I32" t="n">
-        <v>69.54754824076157</v>
+        <v>67.55513560234517</v>
       </c>
       <c r="J32" t="n">
-        <v>214.1973211495897</v>
+        <v>323.8570290861559</v>
       </c>
       <c r="K32" t="n">
-        <v>573.1796771770515</v>
+        <v>682.8393851136177</v>
       </c>
       <c r="L32" t="n">
-        <v>1171.773061622651</v>
+        <v>1287.811797407129</v>
       </c>
       <c r="M32" t="n">
-        <v>1717.773961667232</v>
+        <v>1833.81269745171</v>
       </c>
       <c r="N32" t="n">
-        <v>2350.858338031764</v>
+        <v>2361.623981089172</v>
       </c>
       <c r="O32" t="n">
-        <v>2790.897938924093</v>
+        <v>2801.663581981501</v>
       </c>
       <c r="P32" t="n">
-        <v>3244.358523782685</v>
+        <v>3192.91121997631</v>
       </c>
       <c r="Q32" t="n">
-        <v>3477.377412038079</v>
+        <v>3377.756780117259</v>
       </c>
       <c r="R32" t="n">
-        <v>3477.377412038079</v>
+        <v>3377.756780117259</v>
       </c>
       <c r="S32" t="n">
-        <v>3418.274419908494</v>
+        <v>3325.162335939834</v>
       </c>
       <c r="T32" t="n">
-        <v>3302.184380397275</v>
+        <v>3215.580844380776</v>
       </c>
       <c r="U32" t="n">
-        <v>3153.842213761238</v>
+        <v>3073.747225696899</v>
       </c>
       <c r="V32" t="n">
-        <v>2919.145967394122</v>
+        <v>2845.559527281942</v>
       </c>
       <c r="W32" t="n">
-        <v>2655.557495291774</v>
+        <v>2588.479603131755</v>
       </c>
       <c r="X32" t="n">
-        <v>2373.515453154196</v>
+        <v>2312.946108946336</v>
       </c>
       <c r="Y32" t="n">
-        <v>2084.435307004162</v>
+        <v>2030.374510748462</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>868.9135313807925</v>
+        <v>866.9211187423762</v>
       </c>
       <c r="C33" t="n">
-        <v>718.2593009408847</v>
+        <v>716.2668883024684</v>
       </c>
       <c r="D33" t="n">
-        <v>588.170333562365</v>
+        <v>586.1779209239487</v>
       </c>
       <c r="E33" t="n">
-        <v>451.7238426732528</v>
+        <v>449.7314300348364</v>
       </c>
       <c r="F33" t="n">
-        <v>327.2920365563846</v>
+        <v>325.2996239179682</v>
       </c>
       <c r="G33" t="n">
-        <v>207.232218628249</v>
+        <v>205.2398059898326</v>
       </c>
       <c r="H33" t="n">
-        <v>118.93480222885</v>
+        <v>116.9423895904336</v>
       </c>
       <c r="I33" t="n">
-        <v>69.54754824076157</v>
+        <v>67.55513560234517</v>
       </c>
       <c r="J33" t="n">
-        <v>69.54754824076157</v>
+        <v>67.55513560234517</v>
       </c>
       <c r="K33" t="n">
-        <v>389.286694302988</v>
+        <v>67.55513560234517</v>
       </c>
       <c r="L33" t="n">
-        <v>872.8527802013012</v>
+        <v>67.55513560234517</v>
       </c>
       <c r="M33" t="n">
-        <v>872.8527802013012</v>
+        <v>573.6059565051531</v>
       </c>
       <c r="N33" t="n">
-        <v>1231.376340354128</v>
+        <v>1229.383927715712</v>
       </c>
       <c r="O33" t="n">
-        <v>1747.89662294511</v>
+        <v>1745.904210306693</v>
       </c>
       <c r="P33" t="n">
-        <v>2153.517991661507</v>
+        <v>2151.525579023091</v>
       </c>
       <c r="Q33" t="n">
-        <v>2387.883083216398</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="R33" t="n">
-        <v>2363.966040114462</v>
+        <v>2361.973627476046</v>
       </c>
       <c r="S33" t="n">
-        <v>2229.035363014331</v>
+        <v>2227.042950375915</v>
       </c>
       <c r="T33" t="n">
-        <v>2052.051551213239</v>
+        <v>2050.059138574823</v>
       </c>
       <c r="U33" t="n">
-        <v>1841.988407891881</v>
+        <v>1839.995995253465</v>
       </c>
       <c r="V33" t="n">
-        <v>1619.448406262948</v>
+        <v>1617.455993624532</v>
       </c>
       <c r="W33" t="n">
-        <v>1389.331160396235</v>
+        <v>1387.338747757819</v>
       </c>
       <c r="X33" t="n">
-        <v>1200.024082746247</v>
+        <v>1198.03167010783</v>
       </c>
       <c r="Y33" t="n">
-        <v>1020.709865821754</v>
+        <v>1018.717453183338</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>413.2236159965116</v>
+        <v>365.6713676929736</v>
       </c>
       <c r="C34" t="n">
-        <v>350.4290609918656</v>
+        <v>309.3853606404878</v>
       </c>
       <c r="D34" t="n">
-        <v>302.2065108237451</v>
+        <v>267.6713584245275</v>
       </c>
       <c r="E34" t="n">
-        <v>254.0582616123123</v>
+        <v>226.0316571652549</v>
       </c>
       <c r="F34" t="n">
-        <v>204.14288975465</v>
+        <v>182.6248332597528</v>
       </c>
       <c r="G34" t="n">
-        <v>143.2993987834602</v>
+        <v>128.2898902407234</v>
       </c>
       <c r="H34" t="n">
-        <v>95.23141067431895</v>
+        <v>86.73045008374231</v>
       </c>
       <c r="I34" t="n">
-        <v>69.54754824076157</v>
+        <v>67.55513560234517</v>
       </c>
       <c r="J34" t="n">
-        <v>145.0468983703944</v>
+        <v>149.4335135798903</v>
       </c>
       <c r="K34" t="n">
-        <v>332.1550322074066</v>
+        <v>231.2685546898322</v>
       </c>
       <c r="L34" t="n">
-        <v>514.809996007619</v>
+        <v>507.0483151386146</v>
       </c>
       <c r="M34" t="n">
-        <v>806.3746670729533</v>
+        <v>693.3398934768786</v>
       </c>
       <c r="N34" t="n">
-        <v>989.5643011041625</v>
+        <v>876.5295275080878</v>
       </c>
       <c r="O34" t="n">
-        <v>1257.542160872941</v>
+        <v>1145.033953152048</v>
       </c>
       <c r="P34" t="n">
-        <v>1482.69141937659</v>
+        <v>1264.910118928627</v>
       </c>
       <c r="Q34" t="n">
-        <v>1486.113615746641</v>
+        <v>1379.98443587366</v>
       </c>
       <c r="R34" t="n">
-        <v>1469.623189308582</v>
+        <v>1370.002557387762</v>
       </c>
       <c r="S34" t="n">
-        <v>1374.217668420496</v>
+        <v>1281.105584451837</v>
       </c>
       <c r="T34" t="n">
-        <v>1245.909179518095</v>
+        <v>1159.305643501596</v>
       </c>
       <c r="U34" t="n">
-        <v>1067.880950689361</v>
+        <v>987.7859626250217</v>
       </c>
       <c r="V34" t="n">
-        <v>909.3121684395499</v>
+        <v>835.7257283273709</v>
       </c>
       <c r="W34" t="n">
-        <v>733.3923293000922</v>
+        <v>666.3144371400734</v>
       </c>
       <c r="X34" t="n">
-        <v>606.7225700124401</v>
+        <v>546.1532258045816</v>
       </c>
       <c r="Y34" t="n">
-        <v>491.0210717584482</v>
+        <v>436.9602755027499</v>
       </c>
     </row>
     <row r="35">
@@ -6914,22 +6914,22 @@
         <v>1614.059487414177</v>
       </c>
       <c r="C35" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599517</v>
       </c>
       <c r="D35" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E35" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975456</v>
       </c>
       <c r="F35" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G35" t="n">
-        <v>261.1858216803431</v>
+        <v>261.1858216803435</v>
       </c>
       <c r="H35" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924229</v>
       </c>
       <c r="I35" t="n">
         <v>62.11912770411553</v>
@@ -6965,19 +6965,19 @@
         <v>3071.119566829235</v>
       </c>
       <c r="T35" t="n">
-        <v>2979.295701071061</v>
+        <v>2979.29570107106</v>
       </c>
       <c r="U35" t="n">
         <v>2855.219708188068</v>
       </c>
       <c r="V35" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W35" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X35" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y35" t="n">
         <v>1882.877496443165</v>
@@ -7014,25 +7014,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J36" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K36" t="n">
-        <v>494.9732559860694</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L36" t="n">
-        <v>978.5393418843826</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="M36" t="n">
-        <v>1606.310991511064</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="N36" t="n">
-        <v>2262.088962721623</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O36" t="n">
-        <v>2380.454662679751</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P36" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q36" t="n">
         <v>2380.454662679751</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885598</v>
       </c>
       <c r="C37" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369575</v>
       </c>
       <c r="D37" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218806</v>
       </c>
       <c r="E37" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634915</v>
       </c>
       <c r="F37" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588729</v>
       </c>
       <c r="G37" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072684</v>
       </c>
       <c r="H37" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462923</v>
       </c>
       <c r="I37" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J37" t="n">
-        <v>161.4017547291066</v>
+        <v>67.69877031230033</v>
       </c>
       <c r="K37" t="n">
-        <v>243.2367958390485</v>
+        <v>149.5338114222422</v>
       </c>
       <c r="L37" t="n">
-        <v>407.3644357128483</v>
+        <v>442.7178209184705</v>
       </c>
       <c r="M37" t="n">
-        <v>621.3883893133159</v>
+        <v>629.0093992567345</v>
       </c>
       <c r="N37" t="n">
-        <v>804.578023344525</v>
+        <v>812.1990332879436</v>
       </c>
       <c r="O37" t="n">
-        <v>967.282790386233</v>
+        <v>974.9038003296516</v>
       </c>
       <c r="P37" t="n">
-        <v>1087.158956162812</v>
+        <v>1094.77996610623</v>
       </c>
       <c r="Q37" t="n">
-        <v>1090.581152532862</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="R37" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S37" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341239</v>
       </c>
       <c r="T37" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918814</v>
       </c>
       <c r="U37" t="n">
-        <v>769.2584451161897</v>
+        <v>769.2584451161907</v>
       </c>
       <c r="V37" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194234</v>
       </c>
       <c r="W37" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330094</v>
       </c>
       <c r="X37" t="n">
-        <v>380.8985856984002</v>
+        <v>380.898585698401</v>
       </c>
       <c r="Y37" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974527</v>
       </c>
     </row>
     <row r="38">
@@ -7148,10 +7148,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C38" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D38" t="n">
         <v>1098.796330498592</v>
@@ -7163,58 +7163,58 @@
         <v>542.6718405099309</v>
       </c>
       <c r="G38" t="n">
-        <v>261.1858216803431</v>
+        <v>261.1858216803425</v>
       </c>
       <c r="H38" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924231</v>
       </c>
       <c r="I38" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411556</v>
       </c>
       <c r="J38" t="n">
-        <v>206.7689006129444</v>
+        <v>206.7689006129437</v>
       </c>
       <c r="K38" t="n">
-        <v>565.7512566404062</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L38" t="n">
-        <v>1059.071548358935</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M38" t="n">
         <v>1605.072448403515</v>
       </c>
       <c r="N38" t="n">
-        <v>2132.883732040978</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O38" t="n">
         <v>2572.923332933306</v>
       </c>
       <c r="P38" t="n">
-        <v>2921.110825064828</v>
+        <v>2921.110825064829</v>
       </c>
       <c r="Q38" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205778</v>
       </c>
       <c r="R38" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205778</v>
       </c>
       <c r="S38" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829237</v>
       </c>
       <c r="T38" t="n">
-        <v>2979.295701071061</v>
+        <v>2979.295701071062</v>
       </c>
       <c r="U38" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188069</v>
       </c>
       <c r="V38" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W38" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X38" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y38" t="n">
         <v>1882.877496443165</v>
@@ -7245,31 +7245,31 @@
         <v>199.803798091603</v>
       </c>
       <c r="H39" t="n">
-        <v>111.5063816922039</v>
+        <v>111.506381692204</v>
       </c>
       <c r="I39" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411556</v>
       </c>
       <c r="J39" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411556</v>
       </c>
       <c r="K39" t="n">
-        <v>494.9732559860694</v>
+        <v>96.81867335321709</v>
       </c>
       <c r="L39" t="n">
-        <v>978.5393418843826</v>
+        <v>580.3847592515303</v>
       </c>
       <c r="M39" t="n">
-        <v>1223.947919817482</v>
+        <v>1208.156408878212</v>
       </c>
       <c r="N39" t="n">
-        <v>1223.947919817482</v>
+        <v>1863.93438008877</v>
       </c>
       <c r="O39" t="n">
-        <v>1740.468202408463</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P39" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q39" t="n">
         <v>2380.454662679751</v>
@@ -7306,31 +7306,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885599</v>
       </c>
       <c r="C40" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369575</v>
       </c>
       <c r="D40" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218806</v>
       </c>
       <c r="E40" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634916</v>
       </c>
       <c r="F40" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588729</v>
       </c>
       <c r="G40" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072687</v>
       </c>
       <c r="H40" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462925</v>
       </c>
       <c r="I40" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411556</v>
       </c>
       <c r="J40" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411556</v>
       </c>
       <c r="K40" t="n">
         <v>143.9541688140574</v>
@@ -7345,37 +7345,37 @@
         <v>677.5630210573304</v>
       </c>
       <c r="O40" t="n">
-        <v>969.3241577214669</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P40" t="n">
-        <v>1089.200323498045</v>
+        <v>965.7235964838019</v>
       </c>
       <c r="Q40" t="n">
-        <v>1092.622519868096</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="R40" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S40" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341239</v>
       </c>
       <c r="T40" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918815</v>
       </c>
       <c r="U40" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161908</v>
       </c>
       <c r="V40" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194235</v>
       </c>
       <c r="W40" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330095</v>
       </c>
       <c r="X40" t="n">
-        <v>380.8985856984004</v>
+        <v>380.898585698401</v>
       </c>
       <c r="Y40" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974528</v>
       </c>
     </row>
     <row r="41">
@@ -7385,25 +7385,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414176</v>
       </c>
       <c r="C41" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D41" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E41" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F41" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G41" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803425</v>
       </c>
       <c r="H41" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I41" t="n">
         <v>62.11912770411553</v>
@@ -7436,7 +7436,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S41" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T41" t="n">
         <v>2979.295701071061</v>
@@ -7451,7 +7451,7 @@
         <v>2405.46733722469</v>
       </c>
       <c r="X41" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y41" t="n">
         <v>1882.877496443165</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C43" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D43" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E43" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F43" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G43" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H43" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I43" t="n">
         <v>62.11912770411553</v>
@@ -7585,10 +7585,10 @@
         <v>840.2677880990384</v>
       </c>
       <c r="P43" t="n">
-        <v>960.1439538756169</v>
+        <v>1087.158956162812</v>
       </c>
       <c r="Q43" t="n">
-        <v>1092.622519868097</v>
+        <v>1090.581152532863</v>
       </c>
       <c r="R43" t="n">
         <v>1098.20216247628</v>
@@ -7597,22 +7597,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T43" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U43" t="n">
-        <v>769.2584451161897</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V43" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W43" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X43" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y43" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="44">
@@ -7631,13 +7631,13 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E44" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975454</v>
       </c>
       <c r="F44" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099316</v>
       </c>
       <c r="G44" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H44" t="n">
         <v>68.77950792924223</v>
@@ -7685,7 +7685,7 @@
         <v>2644.789635573994</v>
       </c>
       <c r="W44" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X44" t="n">
         <v>2147.691468840156</v>
@@ -7725,25 +7725,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J45" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K45" t="n">
-        <v>494.9732559860694</v>
+        <v>174.7633905351325</v>
       </c>
       <c r="L45" t="n">
-        <v>978.5393418843826</v>
+        <v>174.7633905351325</v>
       </c>
       <c r="M45" t="n">
-        <v>1223.947919817482</v>
+        <v>802.5350401618138</v>
       </c>
       <c r="N45" t="n">
-        <v>1223.947919817482</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O45" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P45" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q45" t="n">
         <v>2380.454662679751</v>
@@ -7813,19 +7813,19 @@
         <v>308.0818086878572</v>
       </c>
       <c r="M46" t="n">
-        <v>623.4297566485498</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N46" t="n">
-        <v>806.6193906797589</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O46" t="n">
-        <v>969.3241577214669</v>
+        <v>967.2827903862335</v>
       </c>
       <c r="P46" t="n">
-        <v>1089.200323498045</v>
+        <v>1087.158956162812</v>
       </c>
       <c r="Q46" t="n">
-        <v>1092.622519868096</v>
+        <v>1090.581152532863</v>
       </c>
       <c r="R46" t="n">
         <v>1098.20216247628</v>
@@ -7976,25 +7976,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K2" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L2" t="n">
-        <v>153.2481697304917</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M2" t="n">
-        <v>640.3852542562144</v>
+        <v>637.5111168138476</v>
       </c>
       <c r="N2" t="n">
-        <v>682.2612020826953</v>
+        <v>667.9090757920156</v>
       </c>
       <c r="O2" t="n">
-        <v>594.0482827698827</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P2" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q2" t="n">
         <v>331.2113854294513</v>
@@ -8055,7 +8055,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J3" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K3" t="n">
         <v>412.5657697396227</v>
@@ -8064,19 +8064,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>129.3788906163258</v>
+        <v>297.5876289994834</v>
       </c>
       <c r="N3" t="n">
-        <v>629.0678552886031</v>
+        <v>604.1626973083982</v>
       </c>
       <c r="O3" t="n">
-        <v>92.68755888888889</v>
+        <v>611.4781433431205</v>
       </c>
       <c r="P3" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q3" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R3" t="n">
         <v>71.01380490566048</v>
@@ -8213,25 +8213,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K5" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L5" t="n">
         <v>651.5514946987026</v>
       </c>
       <c r="M5" t="n">
-        <v>312.6161996011349</v>
+        <v>668.5156360519588</v>
       </c>
       <c r="N5" t="n">
-        <v>149.1184913377841</v>
+        <v>555.0285516398977</v>
       </c>
       <c r="O5" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P5" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q5" t="n">
         <v>331.2113854294513</v>
@@ -8295,19 +8295,19 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K6" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L6" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>210.3493810476992</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N6" t="n">
-        <v>629.0678552886031</v>
+        <v>485.8810686938607</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>611.4781433431205</v>
       </c>
       <c r="P6" t="n">
         <v>496.801919078302</v>
@@ -8453,7 +8453,7 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K8" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L8" t="n">
         <v>651.5514946987026</v>
@@ -8462,16 +8462,16 @@
         <v>701.2411122488187</v>
       </c>
       <c r="N8" t="n">
-        <v>682.2612020826953</v>
+        <v>458.1505014870046</v>
       </c>
       <c r="O8" t="n">
-        <v>545.7463662600596</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P8" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q8" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R8" t="n">
         <v>102.5176150018526</v>
@@ -8705,7 +8705,7 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P11" t="n">
-        <v>502.0059847475131</v>
+        <v>502.0059847475122</v>
       </c>
       <c r="Q11" t="n">
         <v>331.2113854294513</v>
@@ -8772,7 +8772,7 @@
         <v>89.59693533333335</v>
       </c>
       <c r="L12" t="n">
-        <v>578.5109386733963</v>
+        <v>203.8424305246122</v>
       </c>
       <c r="M12" t="n">
         <v>726.4998994499999</v>
@@ -8784,7 +8784,7 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P12" t="n">
-        <v>122.133410929518</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q12" t="n">
         <v>90.98815315591399</v>
@@ -9003,13 +9003,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K15" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L15" t="n">
-        <v>578.5109386733963</v>
+        <v>376.8285690715891</v>
       </c>
       <c r="M15" t="n">
         <v>726.4998994499999</v>
@@ -9018,13 +9018,13 @@
         <v>747.7741039759435</v>
       </c>
       <c r="O15" t="n">
-        <v>212.2488719779076</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P15" t="n">
         <v>87.08336481931465</v>
       </c>
       <c r="Q15" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9249,10 +9249,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>92.38712204931191</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N18" t="n">
-        <v>333.2595653118431</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O18" t="n">
         <v>614.4252180716981</v>
@@ -9480,16 +9480,16 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K21" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L21" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>726.4998994499999</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N21" t="n">
-        <v>258.8480380294549</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O21" t="n">
         <v>614.4252180716981</v>
@@ -9498,7 +9498,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q21" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R21" t="n">
         <v>71.01380490566048</v>
@@ -9714,19 +9714,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K24" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L24" t="n">
-        <v>578.5109386733963</v>
+        <v>163.9964000092958</v>
       </c>
       <c r="M24" t="n">
         <v>92.38712204931191</v>
       </c>
       <c r="N24" t="n">
-        <v>447.5171231095475</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O24" t="n">
         <v>614.4252180716981</v>
@@ -9954,16 +9954,16 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K27" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L27" t="n">
-        <v>578.5109386733963</v>
+        <v>486.9652344155849</v>
       </c>
       <c r="M27" t="n">
-        <v>577.0069902189987</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N27" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O27" t="n">
         <v>614.4252180716981</v>
@@ -9972,7 +9972,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q27" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R27" t="n">
         <v>71.01380490566048</v>
@@ -10191,19 +10191,19 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K30" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L30" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M30" t="n">
-        <v>726.4998994499999</v>
+        <v>489.2920096079786</v>
       </c>
       <c r="N30" t="n">
-        <v>220.884447093964</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O30" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P30" t="n">
         <v>496.801919078302</v>
@@ -10428,16 +10428,16 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K33" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L33" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M33" t="n">
-        <v>92.38712204931191</v>
+        <v>603.5495674056835</v>
       </c>
       <c r="N33" t="n">
-        <v>447.5171231095476</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O33" t="n">
         <v>614.4252180716981</v>
@@ -10662,28 +10662,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K36" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L36" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M36" t="n">
-        <v>726.4998994499999</v>
+        <v>603.5495674056833</v>
       </c>
       <c r="N36" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O36" t="n">
-        <v>212.2488719779076</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P36" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q36" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R36" t="n">
         <v>71.01380490566048</v>
@@ -10838,7 +10838,7 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P38" t="n">
-        <v>502.0059847475129</v>
+        <v>502.0059847475145</v>
       </c>
       <c r="Q38" t="n">
         <v>331.2113854294513</v>
@@ -10899,28 +10899,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K39" t="n">
-        <v>412.5657697396227</v>
+        <v>124.6469814435369</v>
       </c>
       <c r="L39" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>340.2745745069883</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N39" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O39" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P39" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q39" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R39" t="n">
         <v>71.01380490566048</v>
@@ -11373,19 +11373,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K45" t="n">
-        <v>412.5657697396227</v>
+        <v>203.3790190010273</v>
       </c>
       <c r="L45" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M45" t="n">
-        <v>340.2745745069883</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N45" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O45" t="n">
         <v>614.4252180716981</v>
@@ -11394,7 +11394,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q45" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R45" t="n">
         <v>71.01380490566048</v>
@@ -23255,16 +23255,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>325.411485859551</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>310.508405100767</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>318.0134566844727</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>249.7639075344423</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,13 +23306,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>93.77010711362806</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>159.5348557388413</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>321.4474895938729</v>
       </c>
     </row>
     <row r="12">
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>112.2776261096564</v>
+        <v>112.2776261096563</v>
       </c>
       <c r="C13" t="n">
-        <v>97.42475435993879</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>82.92491162465762</v>
+        <v>82.92491162465754</v>
       </c>
       <c r="F13" t="n">
-        <v>84.67436304442489</v>
+        <v>84.67436304442481</v>
       </c>
       <c r="G13" t="n">
-        <v>95.49320096681703</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>82.84545313338899</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>60.68516871456092</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>51.58366707901683</v>
       </c>
       <c r="S13" t="n">
-        <v>73.46849024146516</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>71.27215664125228</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23498,7 +23498,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>91.07494101728673</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>65.87543334372785</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,19 +23546,19 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>150.1872840214455</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>182.1168898750154</v>
       </c>
       <c r="V14" t="n">
         <v>267.6074288087848</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>296.2107322866634</v>
       </c>
       <c r="X14" t="n">
-        <v>314.4797666215418</v>
+        <v>143.2898028423234</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23653,13 +23653,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>97.42475435993867</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>82.9984695717784</v>
       </c>
       <c r="E16" t="n">
-        <v>82.92491162465754</v>
+        <v>82.92491162465751</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>59.07643942546205</v>
+        <v>82.84545313338896</v>
       </c>
       <c r="I16" t="n">
-        <v>60.68516871456092</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>51.58366707901683</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>129.7096105845442</v>
+        <v>129.7096105845441</v>
       </c>
       <c r="T16" t="n">
-        <v>162.2835489187162</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>70.3601470726494</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>952303.2129709037</v>
+        <v>951400.8915502634</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>952303.2129709037</v>
+        <v>951400.8915502634</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>851443.8984409129</v>
+        <v>851443.8984409128</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>851443.8984409128</v>
+        <v>851443.8984409131</v>
       </c>
     </row>
     <row r="7">
@@ -26311,43 +26311,43 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>342631.138377378</v>
+      </c>
+      <c r="C2" t="n">
+        <v>342631.138377378</v>
+      </c>
+      <c r="D2" t="n">
         <v>342631.1383773779</v>
-      </c>
-      <c r="C2" t="n">
-        <v>342631.1383773779</v>
-      </c>
-      <c r="D2" t="n">
-        <v>342631.1383773778</v>
       </c>
       <c r="E2" t="n">
         <v>302782.1445063609</v>
       </c>
       <c r="F2" t="n">
-        <v>302782.1445063608</v>
+        <v>302782.144506361</v>
       </c>
       <c r="G2" t="n">
         <v>342631.1383773781</v>
       </c>
       <c r="H2" t="n">
-        <v>342631.1383773781</v>
+        <v>342631.1383773779</v>
       </c>
       <c r="I2" t="n">
-        <v>342631.1383773781</v>
+        <v>342631.138377378</v>
       </c>
       <c r="J2" t="n">
         <v>342631.1383773781</v>
       </c>
       <c r="K2" t="n">
-        <v>342631.138377378</v>
+        <v>342631.1383773779</v>
       </c>
       <c r="L2" t="n">
         <v>342631.1383773782</v>
       </c>
       <c r="M2" t="n">
-        <v>342631.1383773782</v>
+        <v>342631.1383773781</v>
       </c>
       <c r="N2" t="n">
-        <v>342631.138377378</v>
+        <v>342631.1383773781</v>
       </c>
       <c r="O2" t="n">
         <v>342631.1383773781</v>
@@ -26363,46 +26363,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>182204.9482918557</v>
+        <v>173858.6570340554</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>14822.14031062212</v>
+        <v>22558.42953401319</v>
       </c>
       <c r="E3" t="n">
         <v>112122.5614740445</v>
       </c>
       <c r="F3" t="n">
-        <v>6.821210263296962e-11</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="G3" t="n">
-        <v>47425.32553668195</v>
+        <v>47425.32553668191</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>206802.1491945023</v>
+        <v>200285.8640399296</v>
       </c>
       <c r="K3" t="n">
-        <v>4.547473508864641e-11</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>57301.47179728565</v>
+        <v>62456.24177539652</v>
       </c>
       <c r="M3" t="n">
-        <v>42200.82945962305</v>
+        <v>43252.52447081108</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>27767.69404277121</v>
+        <v>27767.69404277126</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,19 +26415,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>199815.2079190949</v>
+        <v>205625.0607746773</v>
       </c>
       <c r="C4" t="n">
-        <v>199815.207919095</v>
+        <v>205625.0607746773</v>
       </c>
       <c r="D4" t="n">
         <v>188683.9728110359</v>
       </c>
       <c r="E4" t="n">
-        <v>112797.3745002077</v>
+        <v>112797.3745002078</v>
       </c>
       <c r="F4" t="n">
-        <v>112797.3745002078</v>
+        <v>112797.3745002079</v>
       </c>
       <c r="G4" t="n">
         <v>160556.29099179</v>
@@ -26445,13 +26445,13 @@
         <v>161306.7834561731</v>
       </c>
       <c r="L4" t="n">
-        <v>161051.2095556897</v>
+        <v>160917.814946635</v>
       </c>
       <c r="M4" t="n">
-        <v>160556.29099179</v>
+        <v>160556.2909917899</v>
       </c>
       <c r="N4" t="n">
-        <v>160556.29099179</v>
+        <v>160556.2909917899</v>
       </c>
       <c r="O4" t="n">
         <v>160556.29099179</v>
@@ -26467,19 +26467,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>66684.30114001373</v>
+        <v>65170.06753481727</v>
       </c>
       <c r="C5" t="n">
-        <v>66684.30114001373</v>
+        <v>65170.06753481727</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
       </c>
       <c r="E5" t="n">
+        <v>53186.0196998405</v>
+      </c>
+      <c r="F5" t="n">
         <v>53186.01969984051</v>
-      </c>
-      <c r="F5" t="n">
-        <v>53186.01969984052</v>
       </c>
       <c r="G5" t="n">
         <v>58169.76931551966</v>
@@ -26497,13 +26497,13 @@
         <v>63659.0452539195</v>
       </c>
       <c r="L5" t="n">
-        <v>61795.73629173846</v>
+        <v>60823.19813315426</v>
       </c>
       <c r="M5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551965</v>
       </c>
       <c r="N5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551968</v>
       </c>
       <c r="O5" t="n">
         <v>58169.76931551966</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-106073.3189735865</v>
+        <v>-102022.646966172</v>
       </c>
       <c r="C6" t="n">
-        <v>76131.6293182692</v>
+        <v>71836.01006788338</v>
       </c>
       <c r="D6" t="n">
-        <v>69539.56797854663</v>
+        <v>61803.27875515565</v>
       </c>
       <c r="E6" t="n">
-        <v>24676.18883226816</v>
+        <v>24466.4572855785</v>
       </c>
       <c r="F6" t="n">
-        <v>136798.7503063124</v>
+        <v>136589.0187596231</v>
       </c>
       <c r="G6" t="n">
-        <v>76479.75253338652</v>
+        <v>76479.75253338649</v>
       </c>
       <c r="H6" t="n">
-        <v>123905.0780700684</v>
+        <v>123905.0780700682</v>
       </c>
       <c r="I6" t="n">
-        <v>123905.0780700684</v>
+        <v>123905.0780700683</v>
       </c>
       <c r="J6" t="n">
-        <v>-89136.83952721683</v>
+        <v>-82620.55437264405</v>
       </c>
       <c r="K6" t="n">
         <v>117665.3096672854</v>
       </c>
       <c r="L6" t="n">
-        <v>62482.72073266437</v>
+        <v>58433.88352219241</v>
       </c>
       <c r="M6" t="n">
-        <v>81704.24861044547</v>
+        <v>80652.5535992574</v>
       </c>
       <c r="N6" t="n">
-        <v>123905.0780700684</v>
+        <v>123905.0780700685</v>
       </c>
       <c r="O6" t="n">
-        <v>96137.3840272972</v>
+        <v>96137.38402729717</v>
       </c>
       <c r="P6" t="n">
-        <v>123905.0780700684</v>
+        <v>123905.0780700685</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="F2" t="n">
-        <v>71.07831239473197</v>
+        <v>71.078312394732</v>
       </c>
       <c r="G2" t="n">
         <v>130.3599693155844</v>
@@ -26713,13 +26713,13 @@
         <v>93.99127447431646</v>
       </c>
       <c r="L2" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="M2" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="N2" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="O2" t="n">
         <v>130.3599693155844</v>
@@ -26787,19 +26787,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344365</v>
+        <v>518.7905844542315</v>
       </c>
       <c r="C4" t="n">
-        <v>543.6957424344365</v>
+        <v>518.7905844542315</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
       </c>
       <c r="E4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014439</v>
       </c>
       <c r="F4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014439</v>
       </c>
       <c r="G4" t="n">
         <v>776.4890963014441</v>
@@ -26817,13 +26817,13 @@
         <v>917.0607368443782</v>
       </c>
       <c r="L4" t="n">
-        <v>869.3443530095196</v>
+        <v>844.4391950293146</v>
       </c>
       <c r="M4" t="n">
         <v>776.4890963014441</v>
       </c>
       <c r="N4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014444</v>
       </c>
       <c r="O4" t="n">
         <v>776.4890963014441</v>
@@ -26914,37 +26914,37 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="F2" t="n">
-        <v>8.526512829121202e-14</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>59.28165692085244</v>
+        <v>59.28165692085238</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>34.70961755346399</v>
+        <v>34.70961755346401</v>
       </c>
       <c r="K2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>71.62683974660706</v>
+        <v>78.07030221924565</v>
       </c>
       <c r="M2" t="n">
-        <v>24.02351201551333</v>
+        <v>17.58004954287466</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346401</v>
+        <v>34.70961755346407</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344365</v>
+        <v>518.7905844542315</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>47.71638383485856</v>
+        <v>72.62154181506355</v>
       </c>
       <c r="E4" t="n">
-        <v>185.076970032149</v>
+        <v>185.0769700321488</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.2673829773704</v>
+        <v>659.3622249971654</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>92.22171332407338</v>
+        <v>117.1268713042782</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,25 +27151,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="K2" t="n">
-        <v>8.526512829121202e-14</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>59.28165692085244</v>
+        <v>59.28165692085238</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346399</v>
+        <v>34.70961755346401</v>
       </c>
       <c r="P2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>543.6957424344365</v>
+        <v>518.7905844542315</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>47.71638383485856</v>
+        <v>72.62154181506355</v>
       </c>
       <c r="M4" t="n">
-        <v>185.076970032149</v>
+        <v>185.0769700321488</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,25 +27376,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>381.5867174954989</v>
+        <v>269.3551404056216</v>
       </c>
       <c r="E2" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>353.777469164455</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
         <v>136.9537457384598</v>
@@ -27427,7 +27427,7 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
         <v>221.2655964161775</v>
@@ -27436,16 +27436,16 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -27470,13 +27470,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>17.42514118925668</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27521,10 +27521,10 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>94.41567260240954</v>
       </c>
     </row>
     <row r="4">
@@ -27537,7 +27537,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
         <v>154.0767819665104</v>
@@ -27582,13 +27582,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
         <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
-        <v>233.3618613134482</v>
+        <v>25.66328612135678</v>
       </c>
       <c r="U4" t="n">
         <v>282.5844038405181</v>
@@ -27597,10 +27597,10 @@
         <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>34.70889198304053</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27613,13 +27613,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>398.5576896346209</v>
@@ -27631,10 +27631,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>223.4565505450522</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,16 +27664,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>71.54380555722113</v>
       </c>
       <c r="T5" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
         <v>367.2890446813954</v>
@@ -27701,13 +27701,13 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -27740,16 +27740,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>27.91849938627223</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>27.88843374682253</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -27771,22 +27771,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>8.26255025043082</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>153.923765528121</v>
@@ -27795,7 +27795,7 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27825,13 +27825,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>233.3618613134482</v>
+        <v>75.7959532811941</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
         <v>280.4970980481341</v>
@@ -27850,25 +27850,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>394.2845595296399</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27898,28 +27898,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>367.2890446813954</v>
+        <v>356.3129969833705</v>
       </c>
       <c r="X8" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,16 +28008,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>155.7526754391568</v>
@@ -28026,13 +28026,13 @@
         <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28068,16 +28068,16 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
-        <v>104.0045570257511</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>77.92502801072573</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="11">
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="C11" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="D11" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="E11" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="F11" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="G11" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="H11" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="I11" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="T11" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="U11" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="V11" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="W11" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="X11" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="Y11" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="C13" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="D13" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="E13" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="F13" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="G13" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="H13" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="I13" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="J13" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="K13" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="L13" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="M13" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="N13" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="O13" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="P13" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="Q13" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="R13" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="S13" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="T13" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="U13" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="V13" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="W13" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="X13" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="Y13" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473197</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.078312394732</v>
       </c>
       <c r="C14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.078312394732</v>
       </c>
       <c r="D14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.078312394732</v>
       </c>
       <c r="E14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.078312394732</v>
       </c>
       <c r="F14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.078312394732</v>
       </c>
       <c r="G14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.078312394732</v>
       </c>
       <c r="H14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.078312394732</v>
       </c>
       <c r="I14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.078312394732</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.078312394732</v>
       </c>
       <c r="T14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.078312394732</v>
       </c>
       <c r="U14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.078312394732</v>
       </c>
       <c r="V14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.078312394732</v>
       </c>
       <c r="W14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.078312394732</v>
       </c>
       <c r="X14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.078312394732</v>
       </c>
       <c r="Y14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.078312394732</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.078312394732</v>
       </c>
       <c r="C16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.078312394732</v>
       </c>
       <c r="D16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.078312394732</v>
       </c>
       <c r="E16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.078312394732</v>
       </c>
       <c r="F16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.078312394732</v>
       </c>
       <c r="G16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.078312394732</v>
       </c>
       <c r="H16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.078312394732</v>
       </c>
       <c r="I16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.078312394732</v>
       </c>
       <c r="J16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.078312394732</v>
       </c>
       <c r="K16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.078312394732</v>
       </c>
       <c r="L16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.078312394732</v>
       </c>
       <c r="M16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.078312394732</v>
       </c>
       <c r="N16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.078312394732</v>
       </c>
       <c r="O16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.078312394732</v>
       </c>
       <c r="P16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.078312394732</v>
       </c>
       <c r="Q16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.078312394732</v>
       </c>
       <c r="R16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.078312394732</v>
       </c>
       <c r="S16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.078312394732</v>
       </c>
       <c r="T16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.078312394732</v>
       </c>
       <c r="U16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.078312394732</v>
       </c>
       <c r="V16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.078312394732</v>
       </c>
       <c r="W16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.078312394732</v>
       </c>
       <c r="X16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.078312394732</v>
       </c>
       <c r="Y16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.078312394732</v>
       </c>
     </row>
     <row r="17">
@@ -28752,7 +28752,7 @@
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -28761,13 +28761,13 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>5.636002634528481</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082779</v>
       </c>
       <c r="S19" t="n">
         <v>130.3599693155844</v>
@@ -28983,13 +28983,13 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K22" t="n">
+        <v>5.63600263452814</v>
+      </c>
+      <c r="L22" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
       <c r="M22" t="n">
-        <v>5.636002634528609</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -29220,13 +29220,13 @@
         <v>130.3599693155844</v>
       </c>
       <c r="K25" t="n">
-        <v>35.71049010668817</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>35.71049010668722</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -29296,10 +29296,10 @@
         <v>93.99127447431648</v>
       </c>
       <c r="J26" t="n">
+        <v>30.27223765901121</v>
+      </c>
+      <c r="K26" t="n">
         <v>93.99127447431648</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>93.99127447431648</v>
@@ -29308,16 +29308,16 @@
         <v>93.99127447431648</v>
       </c>
       <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
         <v>93.99127447431648</v>
       </c>
-      <c r="O26" t="n">
+      <c r="Q26" t="n">
         <v>93.99127447431648</v>
-      </c>
-      <c r="P26" t="n">
-        <v>30.27223765901141</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>93.99127447431648</v>
@@ -29536,25 +29536,25 @@
         <v>93.99127447431646</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L29" t="n">
-        <v>93.99127447431646</v>
+        <v>30.27223765901215</v>
       </c>
       <c r="M29" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O29" t="n">
-        <v>30.27223765901221</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="Q29" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>93.99127447431646</v>
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="C32" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="D32" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="E32" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="F32" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="G32" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="H32" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="I32" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>106.3364573000711</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>106.3364573000711</v>
+        <v>43.49509683160352</v>
       </c>
       <c r="Q32" t="n">
-        <v>48.65992738832864</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="T32" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="U32" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="V32" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="W32" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="X32" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="Y32" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727097</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="C34" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="D34" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="E34" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="F34" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="G34" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="H34" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="I34" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="J34" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="K34" t="n">
-        <v>106.3364573000711</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>18.71446861253798</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="M34" t="n">
-        <v>106.3364573000711</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>106.3364573000711</v>
+        <v>106.8683420224772</v>
       </c>
       <c r="P34" t="n">
-        <v>106.3364573000711</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="R34" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="S34" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="T34" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="U34" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="V34" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="W34" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="X34" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="Y34" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727097</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="36">
@@ -30141,40 +30141,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J37" t="n">
-        <v>130.3599693155844</v>
+        <v>35.71049010668917</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="M37" t="n">
-        <v>28.01250026485212</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
@@ -30189,28 +30189,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>130.3599693155844</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="39">
@@ -30378,28 +30378,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J40" t="n">
         <v>30.07448747215907</v>
@@ -30417,37 +30417,37 @@
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>5.6360026345302</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="R40" t="n">
-        <v>128.2979821082779</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="41">
@@ -30657,13 +30657,13 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>128.2979821082778</v>
       </c>
       <c r="Q43" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="R43" t="n">
-        <v>128.2979821082772</v>
       </c>
       <c r="S43" t="n">
         <v>130.3599693155844</v>
@@ -30885,22 +30885,22 @@
         <v>0</v>
       </c>
       <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>128.2979821082778</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="N46" t="n">
-        <v>0</v>
-      </c>
-      <c r="O46" t="n">
-        <v>0</v>
-      </c>
-      <c r="P46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>0</v>
-      </c>
-      <c r="R46" t="n">
-        <v>128.2979821082779</v>
       </c>
       <c r="S46" t="n">
         <v>130.3599693155844</v>
@@ -34696,25 +34696,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M2" t="n">
-        <v>490.6602026584871</v>
+        <v>487.7860652161203</v>
       </c>
       <c r="N2" t="n">
-        <v>533.1427107449111</v>
+        <v>518.7905844542315</v>
       </c>
       <c r="O2" t="n">
-        <v>444.4844453457863</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>186.7126870110591</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>322.9688344062893</v>
@@ -34784,19 +34784,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>36.99176856701393</v>
+        <v>205.2005069501715</v>
       </c>
       <c r="N3" t="n">
-        <v>543.6957424344365</v>
+        <v>518.7905844542315</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>518.7905844542315</v>
       </c>
       <c r="P3" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,25 +34933,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M5" t="n">
-        <v>162.8911480034076</v>
+        <v>518.7905844542315</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>405.9100603021137</v>
       </c>
       <c r="O5" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P5" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>186.7126870110591</v>
@@ -35015,19 +35015,19 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>117.9622589983873</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>543.6957424344365</v>
+        <v>400.508955839694</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>518.7905844542315</v>
       </c>
       <c r="P6" t="n">
         <v>409.7185542589873</v>
@@ -35173,7 +35173,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>498.303324968211</v>
@@ -35182,16 +35182,16 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N8" t="n">
-        <v>533.1427107449111</v>
+        <v>309.0320101492205</v>
       </c>
       <c r="O8" t="n">
-        <v>396.1825288359632</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35425,7 +35425,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P11" t="n">
-        <v>351.7045375065879</v>
+        <v>351.704537506587</v>
       </c>
       <c r="Q11" t="n">
         <v>186.7126870110591</v>
@@ -35492,7 +35492,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>488.450591816478</v>
+        <v>113.782083667694</v>
       </c>
       <c r="M12" t="n">
         <v>634.1127774006881</v>
@@ -35504,7 +35504,7 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P12" t="n">
-        <v>35.05004611020335</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>41.00382492257281</v>
+        <v>41.0038249225729</v>
       </c>
       <c r="K13" t="n">
         <v>153.7399700815419</v>
       </c>
       <c r="L13" t="n">
-        <v>236.8638072167519</v>
+        <v>236.863807216752</v>
       </c>
       <c r="M13" t="n">
-        <v>259.2516238475238</v>
+        <v>259.2516238475239</v>
       </c>
       <c r="N13" t="n">
-        <v>256.1183467696907</v>
+        <v>256.1183467696908</v>
       </c>
       <c r="O13" t="n">
-        <v>235.4265619318107</v>
+        <v>235.4265619318108</v>
       </c>
       <c r="P13" t="n">
-        <v>192.16534853269</v>
+        <v>192.1653485326901</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.53507640488436</v>
+        <v>74.53507640488445</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,13 +35723,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>488.450591816478</v>
+        <v>286.7682222146709</v>
       </c>
       <c r="M15" t="n">
         <v>634.1127774006881</v>
@@ -35738,13 +35738,13 @@
         <v>662.4019911217769</v>
       </c>
       <c r="O15" t="n">
-        <v>119.5613130890187</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>41.0038249225729</v>
+        <v>41.00382492257292</v>
       </c>
       <c r="K16" t="n">
-        <v>153.7399700815419</v>
+        <v>153.739970081542</v>
       </c>
       <c r="L16" t="n">
         <v>236.863807216752</v>
@@ -35817,13 +35817,13 @@
         <v>256.1183467696908</v>
       </c>
       <c r="O16" t="n">
-        <v>235.4265619318108</v>
+        <v>235.4265619318109</v>
       </c>
       <c r="P16" t="n">
-        <v>192.1653485326901</v>
+        <v>192.1653485326902</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.53507640488445</v>
+        <v>74.53507640488448</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35969,10 +35969,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N18" t="n">
-        <v>247.8874524576764</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>521.7376591828091</v>
@@ -36048,7 +36048,7 @@
         <v>165.78549482202</v>
       </c>
       <c r="M19" t="n">
-        <v>188.1733114527919</v>
+        <v>318.5332807683764</v>
       </c>
       <c r="N19" t="n">
         <v>185.0400343749588</v>
@@ -36057,13 +36057,13 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P19" t="n">
-        <v>126.7230387724866</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q19" t="n">
-        <v>133.8167333257369</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>5.636002634529095</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36124,7 +36124,7 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L20" t="n">
-        <v>498.303324968211</v>
+        <v>498.3033249682109</v>
       </c>
       <c r="M20" t="n">
         <v>551.5160606510915</v>
@@ -36200,16 +36200,16 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L21" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
-        <v>634.1127774006881</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N21" t="n">
-        <v>173.4759251752883</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>521.7376591828091</v>
@@ -36218,7 +36218,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36279,13 +36279,13 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>213.0216270023944</v>
+        <v>88.29766032133811</v>
       </c>
       <c r="L22" t="n">
-        <v>165.78549482202</v>
+        <v>296.1454641376044</v>
       </c>
       <c r="M22" t="n">
-        <v>193.8093140873206</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N22" t="n">
         <v>185.0400343749588</v>
@@ -36434,19 +36434,19 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K24" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L24" t="n">
-        <v>488.450591816478</v>
+        <v>73.93605315237758</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>362.1450102553808</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O24" t="n">
         <v>521.7376591828091</v>
@@ -36513,16 +36513,16 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>100.2854818434253</v>
+        <v>100.2854818434254</v>
       </c>
       <c r="K25" t="n">
-        <v>118.3721477934981</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L25" t="n">
         <v>165.78549482202</v>
       </c>
       <c r="M25" t="n">
-        <v>188.1733114527919</v>
+        <v>223.8838015594792</v>
       </c>
       <c r="N25" t="n">
         <v>185.0400343749588</v>
@@ -36592,10 +36592,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>240.1021562004055</v>
+        <v>176.3831193851002</v>
       </c>
       <c r="K26" t="n">
-        <v>362.6084404317796</v>
+        <v>456.5997149060961</v>
       </c>
       <c r="L26" t="n">
         <v>592.2945994425274</v>
@@ -36604,16 +36604,16 @@
         <v>645.507335125408</v>
       </c>
       <c r="N26" t="n">
-        <v>627.1339852192276</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O26" t="n">
-        <v>538.4757198201028</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P26" t="n">
-        <v>381.9767751655991</v>
+        <v>445.6958119809042</v>
       </c>
       <c r="Q26" t="n">
-        <v>186.7126870110591</v>
+        <v>280.7039614853756</v>
       </c>
       <c r="R26" t="n">
         <v>56.3782898969832</v>
@@ -36674,16 +36674,16 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K27" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>488.450591816478</v>
+        <v>396.9048875586666</v>
       </c>
       <c r="M27" t="n">
-        <v>484.6198681696868</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O27" t="n">
         <v>521.7376591828091</v>
@@ -36692,7 +36692,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36832,25 +36832,25 @@
         <v>240.1021562004054</v>
       </c>
       <c r="K29" t="n">
-        <v>362.6084404317796</v>
+        <v>456.5997149060961</v>
       </c>
       <c r="L29" t="n">
-        <v>592.2945994425274</v>
+        <v>528.5755626272231</v>
       </c>
       <c r="M29" t="n">
         <v>645.507335125408</v>
       </c>
       <c r="N29" t="n">
-        <v>533.1427107449111</v>
+        <v>627.1339852192276</v>
       </c>
       <c r="O29" t="n">
-        <v>474.7566830047985</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P29" t="n">
         <v>445.6958119809042</v>
       </c>
       <c r="Q29" t="n">
-        <v>280.7039614853756</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R29" t="n">
         <v>56.37828989698318</v>
@@ -36911,19 +36911,19 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K30" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>634.1127774006881</v>
+        <v>396.9048875586666</v>
       </c>
       <c r="N30" t="n">
-        <v>135.5123342397974</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P30" t="n">
         <v>409.7185542589873</v>
@@ -37066,28 +37066,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>146.110881726089</v>
+        <v>258.8908014987987</v>
       </c>
       <c r="K32" t="n">
         <v>362.6084404317796</v>
       </c>
       <c r="L32" t="n">
-        <v>604.639782268282</v>
+        <v>611.0832447409207</v>
       </c>
       <c r="M32" t="n">
         <v>551.5160606510915</v>
       </c>
       <c r="N32" t="n">
-        <v>639.4791680449822</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O32" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P32" t="n">
-        <v>458.0409948066588</v>
+        <v>395.1996343381912</v>
       </c>
       <c r="Q32" t="n">
-        <v>235.3726143993878</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37148,16 +37148,16 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>511.1624453563717</v>
       </c>
       <c r="N33" t="n">
-        <v>362.145010255381</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O33" t="n">
         <v>521.7376591828091</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>76.261969827912</v>
+        <v>82.70543230055065</v>
       </c>
       <c r="K34" t="n">
-        <v>188.998114986881</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L34" t="n">
-        <v>184.499963434558</v>
+        <v>278.5654145947297</v>
       </c>
       <c r="M34" t="n">
-        <v>294.509768752863</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N34" t="n">
         <v>185.0400343749588</v>
       </c>
       <c r="O34" t="n">
-        <v>270.6847068371499</v>
+        <v>271.2165915595561</v>
       </c>
       <c r="P34" t="n">
-        <v>227.4234934380293</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q34" t="n">
-        <v>3.456764010152483</v>
+        <v>116.2366837828622</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>634.1127774006881</v>
+        <v>511.1624453563714</v>
       </c>
       <c r="N36" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O36" t="n">
-        <v>119.5613130890187</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,16 +37461,16 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>100.2854818434253</v>
+        <v>5.636002634530099</v>
       </c>
       <c r="K37" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L37" t="n">
-        <v>165.78549482202</v>
+        <v>296.1454641376043</v>
       </c>
       <c r="M37" t="n">
-        <v>216.1858117176441</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N37" t="n">
         <v>185.0400343749588</v>
@@ -37485,7 +37485,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R37" t="n">
-        <v>7.697989841835607</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37558,7 +37558,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P38" t="n">
-        <v>351.7045375065877</v>
+        <v>351.7045375065893</v>
       </c>
       <c r="Q38" t="n">
         <v>186.7126870110591</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>322.9688344062893</v>
+        <v>35.05004611020357</v>
       </c>
       <c r="L39" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M39" t="n">
-        <v>247.8874524576764</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O39" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P39" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37713,16 +37713,16 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O40" t="n">
-        <v>294.7082188526632</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P40" t="n">
-        <v>121.0870361379582</v>
+        <v>126.7230387724884</v>
       </c>
       <c r="Q40" t="n">
-        <v>3.456764010152483</v>
+        <v>133.8167333257368</v>
       </c>
       <c r="R40" t="n">
-        <v>5.636002634529095</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37953,13 +37953,13 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P43" t="n">
-        <v>121.0870361379582</v>
+        <v>249.385018246236</v>
       </c>
       <c r="Q43" t="n">
-        <v>133.8167333257369</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R43" t="n">
-        <v>5.636002634528405</v>
+        <v>7.697989841835579</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38020,7 +38020,7 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L44" t="n">
-        <v>498.303324968211</v>
+        <v>498.3033249682109</v>
       </c>
       <c r="M44" t="n">
         <v>551.5160606510915</v>
@@ -38093,19 +38093,19 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>322.9688344062893</v>
+        <v>113.782083667694</v>
       </c>
       <c r="L45" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>247.8874524576764</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O45" t="n">
         <v>521.7376591828091</v>
@@ -38114,7 +38114,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q45" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38181,13 +38181,13 @@
         <v>165.78549482202</v>
       </c>
       <c r="M46" t="n">
-        <v>318.5332807683764</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N46" t="n">
         <v>185.0400343749588</v>
       </c>
       <c r="O46" t="n">
-        <v>164.3482495370789</v>
+        <v>292.6462316453567</v>
       </c>
       <c r="P46" t="n">
         <v>121.0870361379582</v>
@@ -38196,7 +38196,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R46" t="n">
-        <v>5.636002634529095</v>
+        <v>7.697989841835579</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
